--- a/data/maingraphs-code-size-table2.xlsx
+++ b/data/maingraphs-code-size-table2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main table" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="133">
   <si>
     <t>BENCHMARK x</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>offset for indirect lookup</t>
-  </si>
-  <si>
-    <t>Simple peephole</t>
   </si>
   <si>
     <t>Impr. peephole</t>
@@ -534,8 +531,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="267">
+  <cellStyleXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -818,7 +841,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="267">
+  <cellStyles count="293">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -952,6 +975,19 @@
     <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1085,6 +1121,19 @@
     <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1457,7 +1506,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
@@ -1512,7 +1561,7 @@
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1752,12 +1801,12 @@
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>449.2</v>
@@ -1804,7 +1853,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12">
         <v>254.2</v>
@@ -2480,59 +2529,59 @@
         <v>14</v>
       </c>
       <c r="B31" s="4">
-        <f>B4</f>
+        <f t="shared" ref="B31:O31" si="0">B4</f>
         <v>449.2</v>
       </c>
       <c r="C31" s="4">
-        <f>C4</f>
+        <f t="shared" si="0"/>
         <v>298</v>
       </c>
       <c r="D31" s="4">
-        <f>D4</f>
+        <f t="shared" si="0"/>
         <v>208.2</v>
       </c>
       <c r="E31" s="4">
-        <f>E4</f>
+        <f t="shared" si="0"/>
         <v>287.2</v>
       </c>
       <c r="F31" s="4">
-        <f>F4</f>
+        <f t="shared" si="0"/>
         <v>166</v>
       </c>
       <c r="G31" s="4">
-        <f>G4</f>
+        <f t="shared" si="0"/>
         <v>239.3</v>
       </c>
       <c r="H31" s="4">
-        <f>H4</f>
+        <f t="shared" si="0"/>
         <v>94.9</v>
       </c>
       <c r="I31" s="4">
-        <f>I4</f>
+        <f t="shared" si="0"/>
         <v>316.3</v>
       </c>
       <c r="J31" s="4">
-        <f>J4</f>
+        <f t="shared" si="0"/>
         <v>186.4</v>
       </c>
       <c r="K31" s="4">
-        <f>K4</f>
+        <f t="shared" si="0"/>
         <v>159.4</v>
       </c>
       <c r="L31" s="4">
-        <f>L4</f>
+        <f t="shared" si="0"/>
         <v>255</v>
       </c>
       <c r="M31" s="4">
-        <f>M4</f>
+        <f t="shared" si="0"/>
         <v>26.2</v>
       </c>
       <c r="N31" s="4">
-        <f>N4</f>
+        <f t="shared" si="0"/>
         <v>238.5</v>
       </c>
       <c r="O31" s="4">
-        <f>O4</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
     </row>
@@ -2541,59 +2590,59 @@
         <v>15</v>
       </c>
       <c r="B32" s="4">
-        <f>B5</f>
+        <f t="shared" ref="B32:O32" si="1">B5</f>
         <v>159.30000000000001</v>
       </c>
       <c r="C32" s="4">
-        <f>C5</f>
+        <f t="shared" si="1"/>
         <v>99.3</v>
       </c>
       <c r="D32" s="4">
-        <f>D5</f>
+        <f t="shared" si="1"/>
         <v>71.2</v>
       </c>
       <c r="E32" s="4">
-        <f>E5</f>
+        <f t="shared" si="1"/>
         <v>140.6</v>
       </c>
       <c r="F32" s="4">
-        <f>F5</f>
+        <f t="shared" si="1"/>
         <v>110.7</v>
       </c>
       <c r="G32" s="4">
-        <f>G5</f>
+        <f t="shared" si="1"/>
         <v>108.6</v>
       </c>
       <c r="H32" s="4">
-        <f>H5</f>
+        <f t="shared" si="1"/>
         <v>47.7</v>
       </c>
       <c r="I32" s="4">
-        <f>I5</f>
+        <f t="shared" si="1"/>
         <v>92.6</v>
       </c>
       <c r="J32" s="4">
-        <f>J5</f>
+        <f t="shared" si="1"/>
         <v>60.7</v>
       </c>
       <c r="K32" s="4">
-        <f>K5</f>
+        <f t="shared" si="1"/>
         <v>69.599999999999994</v>
       </c>
       <c r="L32" s="4">
-        <f>L5</f>
+        <f t="shared" si="1"/>
         <v>78.099999999999994</v>
       </c>
       <c r="M32" s="4">
-        <f>M5</f>
+        <f t="shared" si="1"/>
         <v>31.7</v>
       </c>
       <c r="N32" s="4">
-        <f>N5</f>
+        <f t="shared" si="1"/>
         <v>93.9</v>
       </c>
       <c r="O32" s="4">
-        <f>O5</f>
+        <f t="shared" si="1"/>
         <v>89.5</v>
       </c>
     </row>
@@ -2602,59 +2651,59 @@
         <v>16</v>
       </c>
       <c r="B33" s="4">
-        <f>B6</f>
+        <f t="shared" ref="B33:O33" si="2">B6</f>
         <v>128.80000000000001</v>
       </c>
       <c r="C33" s="4">
-        <f>C6</f>
+        <f t="shared" si="2"/>
         <v>65.8</v>
       </c>
       <c r="D33" s="4">
-        <f>D6</f>
+        <f t="shared" si="2"/>
         <v>76.7</v>
       </c>
       <c r="E33" s="4">
-        <f>E6</f>
+        <f t="shared" si="2"/>
         <v>68.900000000000006</v>
       </c>
       <c r="F33" s="4">
-        <f>F6</f>
+        <f t="shared" si="2"/>
         <v>40.799999999999997</v>
       </c>
       <c r="G33" s="4">
-        <f>G6</f>
+        <f t="shared" si="2"/>
         <v>56.5</v>
       </c>
       <c r="H33" s="4">
-        <f>H6</f>
+        <f t="shared" si="2"/>
         <v>20.3</v>
       </c>
       <c r="I33" s="4">
-        <f>I6</f>
+        <f t="shared" si="2"/>
         <v>103.2</v>
       </c>
       <c r="J33" s="4">
-        <f>J6</f>
+        <f t="shared" si="2"/>
         <v>71.400000000000006</v>
       </c>
       <c r="K33" s="4">
-        <f>K6</f>
+        <f t="shared" si="2"/>
         <v>51.6</v>
       </c>
       <c r="L33" s="4">
-        <f>L6</f>
+        <f t="shared" si="2"/>
         <v>75.900000000000006</v>
       </c>
       <c r="M33" s="4">
-        <f>M6</f>
+        <f t="shared" si="2"/>
         <v>22.6</v>
       </c>
       <c r="N33" s="4">
-        <f>N6</f>
+        <f t="shared" si="2"/>
         <v>56.4</v>
       </c>
       <c r="O33" s="4">
-        <f>O6</f>
+        <f t="shared" si="2"/>
         <v>64.5</v>
       </c>
     </row>
@@ -2663,59 +2712,59 @@
         <v>17</v>
       </c>
       <c r="B34" s="4">
-        <f>B7</f>
+        <f t="shared" ref="B34:O34" si="3">B7</f>
         <v>1.7</v>
       </c>
       <c r="C34" s="4">
-        <f>C7</f>
+        <f t="shared" si="3"/>
         <v>17.399999999999999</v>
       </c>
       <c r="D34" s="4">
-        <f>D7</f>
+        <f t="shared" si="3"/>
         <v>9.6</v>
       </c>
       <c r="E34" s="4">
-        <f>E7</f>
+        <f t="shared" si="3"/>
         <v>10.1</v>
       </c>
       <c r="F34" s="4">
-        <f>F7</f>
+        <f t="shared" si="3"/>
         <v>-3.6</v>
       </c>
       <c r="G34" s="4">
-        <f>G7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <f>H7</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="I34" s="4">
-        <f>I7</f>
+        <f t="shared" si="3"/>
         <v>14.7</v>
       </c>
       <c r="J34" s="4">
-        <f>J7</f>
+        <f t="shared" si="3"/>
         <v>5.7</v>
       </c>
       <c r="K34" s="4">
-        <f>K7</f>
+        <f t="shared" si="3"/>
         <v>-3.1</v>
       </c>
       <c r="L34" s="4">
-        <f>L7</f>
+        <f t="shared" si="3"/>
         <v>24.1</v>
       </c>
       <c r="M34" s="4">
-        <f>M7</f>
+        <f t="shared" si="3"/>
         <v>-14.3</v>
       </c>
       <c r="N34" s="4">
-        <f>N7</f>
+        <f t="shared" si="3"/>
         <v>15.1</v>
       </c>
       <c r="O34" s="4">
-        <f>O7</f>
+        <f t="shared" si="3"/>
         <v>6.1</v>
       </c>
     </row>
@@ -2724,59 +2773,59 @@
         <v>19</v>
       </c>
       <c r="B35" s="4">
-        <f>B8</f>
+        <f t="shared" ref="B35:O35" si="4">B8</f>
         <v>159.30000000000001</v>
       </c>
       <c r="C35" s="4">
-        <f>C8</f>
+        <f t="shared" si="4"/>
         <v>115.4</v>
       </c>
       <c r="D35" s="4">
-        <f>D8</f>
+        <f t="shared" si="4"/>
         <v>50.7</v>
       </c>
       <c r="E35" s="4">
-        <f>E8</f>
+        <f t="shared" si="4"/>
         <v>67.599999999999994</v>
       </c>
       <c r="F35" s="4">
-        <f>F8</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="G35" s="4">
-        <f>G8</f>
+        <f t="shared" si="4"/>
         <v>74.3</v>
       </c>
       <c r="H35" s="4">
-        <f>H8</f>
+        <f t="shared" si="4"/>
         <v>24.5</v>
       </c>
       <c r="I35" s="4">
-        <f>I8</f>
+        <f t="shared" si="4"/>
         <v>105.8</v>
       </c>
       <c r="J35" s="4">
-        <f>J8</f>
+        <f t="shared" si="4"/>
         <v>48.6</v>
       </c>
       <c r="K35" s="4">
-        <f>K8</f>
+        <f t="shared" si="4"/>
         <v>41.2</v>
       </c>
       <c r="L35" s="4">
-        <f>L8</f>
+        <f t="shared" si="4"/>
         <v>76.900000000000006</v>
       </c>
       <c r="M35" s="4">
-        <f>M8</f>
+        <f t="shared" si="4"/>
         <v>-13.8</v>
       </c>
       <c r="N35" s="4">
-        <f>N8</f>
+        <f t="shared" si="4"/>
         <v>73.099999999999994</v>
       </c>
       <c r="O35" s="4">
-        <f>O8</f>
+        <f t="shared" si="4"/>
         <v>64.7</v>
       </c>
     </row>
@@ -2817,123 +2866,123 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B38" s="4">
-        <f>B12-B11</f>
+        <f t="shared" ref="B38:O38" si="5">B12-B11</f>
         <v>-195</v>
       </c>
       <c r="C38" s="4">
-        <f>C12-C11</f>
+        <f t="shared" si="5"/>
         <v>-58.400000000000006</v>
       </c>
       <c r="D38" s="4">
-        <f>D12-D11</f>
+        <f t="shared" si="5"/>
         <v>-26</v>
       </c>
       <c r="E38" s="4">
-        <f>E12-E11</f>
+        <f t="shared" si="5"/>
         <v>-124.19999999999999</v>
       </c>
       <c r="F38" s="4">
-        <f>F12-F11</f>
+        <f t="shared" si="5"/>
         <v>45.900000000000006</v>
       </c>
       <c r="G38" s="4">
-        <f>G12-G11</f>
+        <f t="shared" si="5"/>
         <v>110.19999999999999</v>
       </c>
       <c r="H38" s="4">
-        <f>H12-H11</f>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="I38" s="4">
-        <f>I12-I11</f>
+        <f t="shared" si="5"/>
         <v>-47.400000000000034</v>
       </c>
       <c r="J38" s="4">
-        <f>J12-J11</f>
+        <f t="shared" si="5"/>
         <v>4.2999999999999829</v>
       </c>
       <c r="K38" s="4">
-        <f>K12-K11</f>
+        <f t="shared" si="5"/>
         <v>-31.200000000000017</v>
       </c>
       <c r="L38" s="4">
-        <f>L12-L11</f>
+        <f t="shared" si="5"/>
         <v>-27.699999999999989</v>
       </c>
       <c r="M38" s="4">
-        <f>M12-M11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N38" s="4">
-        <f>N12-N11</f>
+        <f t="shared" si="5"/>
         <v>-12.699999999999989</v>
       </c>
       <c r="O38" s="4">
-        <f>O12-O11</f>
+        <f t="shared" si="5"/>
         <v>-27.5</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" s="4">
-        <f>B13-B12</f>
+        <f t="shared" ref="B39:O39" si="6">B13-B12</f>
         <v>0</v>
       </c>
       <c r="C39" s="4">
-        <f>C13-C12</f>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
       <c r="D39" s="4">
-        <f>D13-D12</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E39" s="4">
-        <f>E13-E12</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F39" s="4">
-        <f>F13-F12</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G39" s="4">
-        <f>G13-G12</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H39" s="4">
-        <f>H13-H12</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I39" s="4">
-        <f>I13-I12</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J39" s="4">
-        <f>J13-J12</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K39" s="4">
-        <f>K13-K12</f>
+        <f t="shared" si="6"/>
         <v>-5.0999999999999943</v>
       </c>
       <c r="L39" s="4">
-        <f>L13-L12</f>
+        <f t="shared" si="6"/>
         <v>-1.5</v>
       </c>
       <c r="M39" s="4">
-        <f>M13-M12</f>
+        <f t="shared" si="6"/>
         <v>1.1000000000000014</v>
       </c>
       <c r="N39" s="4">
-        <f>N13-N12</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O39" s="4">
-        <f>O13-O12</f>
+        <f t="shared" si="6"/>
         <v>-0.69999999999998863</v>
       </c>
     </row>
@@ -2942,59 +2991,59 @@
         <v>32</v>
       </c>
       <c r="B40" s="4">
-        <f>B14-B13</f>
+        <f t="shared" ref="B40:O40" si="7">B14-B13</f>
         <v>-67.799999999999983</v>
       </c>
       <c r="C40" s="4">
-        <f>C14-C13</f>
+        <f t="shared" si="7"/>
         <v>-53</v>
       </c>
       <c r="D40" s="4">
-        <f>D14-D13</f>
+        <f t="shared" si="7"/>
         <v>-45.199999999999989</v>
       </c>
       <c r="E40" s="4">
-        <f>E14-E13</f>
+        <f t="shared" si="7"/>
         <v>-38.299999999999997</v>
       </c>
       <c r="F40" s="4">
-        <f>F14-F13</f>
+        <f t="shared" si="7"/>
         <v>-49.400000000000006</v>
       </c>
       <c r="G40" s="4">
-        <f>G14-G13</f>
+        <f t="shared" si="7"/>
         <v>-62.5</v>
       </c>
       <c r="H40" s="4">
-        <f>H14-H13</f>
+        <f t="shared" si="7"/>
         <v>-32.200000000000003</v>
       </c>
       <c r="I40" s="4">
-        <f>I14-I13</f>
+        <f t="shared" si="7"/>
         <v>-77.799999999999983</v>
       </c>
       <c r="J40" s="4">
-        <f>J14-J13</f>
+        <f t="shared" si="7"/>
         <v>-33.899999999999977</v>
       </c>
       <c r="K40" s="4">
-        <f>K14-K13</f>
+        <f t="shared" si="7"/>
         <v>-24.699999999999989</v>
       </c>
       <c r="L40" s="4">
-        <f>L14-L13</f>
+        <f t="shared" si="7"/>
         <v>-28.200000000000017</v>
       </c>
       <c r="M40" s="4">
-        <f>M14-M13</f>
+        <f t="shared" si="7"/>
         <v>-13.700000000000001</v>
       </c>
       <c r="N40" s="4">
-        <f>N14-N13</f>
+        <f t="shared" si="7"/>
         <v>-49.900000000000006</v>
       </c>
       <c r="O40" s="4">
-        <f>O14-O13</f>
+        <f t="shared" si="7"/>
         <v>-44.400000000000006</v>
       </c>
     </row>
@@ -3003,59 +3052,59 @@
         <v>33</v>
       </c>
       <c r="B41" s="4">
-        <f>B15-B14</f>
+        <f t="shared" ref="B41:O41" si="8">B15-B14</f>
         <v>-25.400000000000006</v>
       </c>
       <c r="C41" s="4">
-        <f>C15-C14</f>
+        <f t="shared" si="8"/>
         <v>-28.900000000000006</v>
       </c>
       <c r="D41" s="4">
-        <f>D15-D14</f>
+        <f t="shared" si="8"/>
         <v>-24.700000000000003</v>
       </c>
       <c r="E41" s="4">
-        <f>E15-E14</f>
+        <f t="shared" si="8"/>
         <v>-59.400000000000006</v>
       </c>
       <c r="F41" s="4">
-        <f>F15-F14</f>
+        <f t="shared" si="8"/>
         <v>-85.4</v>
       </c>
       <c r="G41" s="4">
-        <f>G15-G14</f>
+        <f t="shared" si="8"/>
         <v>-111.19999999999999</v>
       </c>
       <c r="H41" s="4">
-        <f>H15-H14</f>
+        <f t="shared" si="8"/>
         <v>-20.900000000000006</v>
       </c>
       <c r="I41" s="4">
-        <f>I15-I14</f>
+        <f t="shared" si="8"/>
         <v>-30.599999999999994</v>
       </c>
       <c r="J41" s="4">
-        <f>J15-J14</f>
+        <f t="shared" si="8"/>
         <v>-39.700000000000017</v>
       </c>
       <c r="K41" s="4">
-        <f>K15-K14</f>
+        <f t="shared" si="8"/>
         <v>-28.700000000000003</v>
       </c>
       <c r="L41" s="4">
-        <f>L15-L14</f>
+        <f t="shared" si="8"/>
         <v>-26.900000000000006</v>
       </c>
       <c r="M41" s="4">
-        <f>M15-M14</f>
+        <f t="shared" si="8"/>
         <v>-16.3</v>
       </c>
       <c r="N41" s="4">
-        <f>N15-N14</f>
+        <f t="shared" si="8"/>
         <v>-38.599999999999994</v>
       </c>
       <c r="O41" s="4">
-        <f>O15-O14</f>
+        <f t="shared" si="8"/>
         <v>-41.2</v>
       </c>
     </row>
@@ -3064,59 +3113,59 @@
         <v>34</v>
       </c>
       <c r="B42" s="4">
-        <f>B16-B15</f>
+        <f t="shared" ref="B42:O42" si="9">B16-B15</f>
         <v>-16.900000000000006</v>
       </c>
       <c r="C42" s="4">
-        <f>C16-C15</f>
+        <f t="shared" si="9"/>
         <v>-37.599999999999994</v>
       </c>
       <c r="D42" s="4">
-        <f>D16-D15</f>
+        <f t="shared" si="9"/>
         <v>-6.7999999999999972</v>
       </c>
       <c r="E42" s="4">
-        <f>E16-E15</f>
+        <f t="shared" si="9"/>
         <v>-6.1999999999999957</v>
       </c>
       <c r="F42" s="4">
-        <f>F16-F15</f>
+        <f t="shared" si="9"/>
         <v>-18.699999999999996</v>
       </c>
       <c r="G42" s="4">
-        <f>G16-G15</f>
+        <f t="shared" si="9"/>
         <v>-18.700000000000017</v>
       </c>
       <c r="H42" s="4">
-        <f>H16-H15</f>
+        <f t="shared" si="9"/>
         <v>-13.5</v>
       </c>
       <c r="I42" s="4">
-        <f>I16-I15</f>
+        <f t="shared" si="9"/>
         <v>-5.1999999999999886</v>
       </c>
       <c r="J42" s="4">
-        <f>J16-J15</f>
+        <f t="shared" si="9"/>
         <v>-18.5</v>
       </c>
       <c r="K42" s="4">
-        <f>K16-K15</f>
+        <f t="shared" si="9"/>
         <v>-11.300000000000004</v>
       </c>
       <c r="L42" s="4">
-        <f>L16-L15</f>
+        <f t="shared" si="9"/>
         <v>-28.399999999999977</v>
       </c>
       <c r="M42" s="4">
-        <f>M16-M15</f>
+        <f t="shared" si="9"/>
         <v>-8.1000000000000014</v>
       </c>
       <c r="N42" s="4">
-        <f>N16-N15</f>
+        <f t="shared" si="9"/>
         <v>-20.600000000000009</v>
       </c>
       <c r="O42" s="4">
-        <f>O16-O15</f>
+        <f t="shared" si="9"/>
         <v>-16.200000000000003</v>
       </c>
     </row>
@@ -3125,63 +3174,63 @@
         <v>35</v>
       </c>
       <c r="B43" s="4">
-        <f>B17-B16</f>
+        <f t="shared" ref="B43:O43" si="10">B17-B16</f>
         <v>1.7000000000000171</v>
       </c>
       <c r="C43" s="4">
-        <f>C17-C16</f>
+        <f t="shared" si="10"/>
         <v>10.100000000000009</v>
       </c>
       <c r="D43" s="4">
-        <f>D17-D16</f>
+        <f t="shared" si="10"/>
         <v>21.900000000000006</v>
       </c>
       <c r="E43" s="4">
-        <f>E17-E16</f>
+        <f t="shared" si="10"/>
         <v>5.8999999999999986</v>
       </c>
       <c r="F43" s="4">
-        <f>F17-F16</f>
+        <f t="shared" si="10"/>
         <v>-1.1999999999999957</v>
       </c>
       <c r="G43" s="4">
-        <f>G17-G16</f>
+        <f t="shared" si="10"/>
         <v>-2.5999999999999943</v>
       </c>
       <c r="H43" s="4">
-        <f>H17-H16</f>
+        <f t="shared" si="10"/>
         <v>-4.1999999999999957</v>
       </c>
       <c r="I43" s="4">
-        <f>I17-I16</f>
+        <f t="shared" si="10"/>
         <v>-16.400000000000006</v>
       </c>
       <c r="J43" s="4">
-        <f>J17-J16</f>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="K43" s="4">
-        <f>K17-K16</f>
+        <f t="shared" si="10"/>
         <v>0.80000000000000426</v>
       </c>
       <c r="L43" s="4">
-        <f>L17-L16</f>
+        <f t="shared" si="10"/>
         <v>-8.6000000000000227</v>
       </c>
       <c r="M43" s="4">
-        <f>M17-M16</f>
+        <f t="shared" si="10"/>
         <v>-2.5</v>
       </c>
       <c r="N43" s="4">
-        <f>N17-N16</f>
+        <f t="shared" si="10"/>
         <v>-11.400000000000006</v>
       </c>
       <c r="O43" s="4">
-        <f>O17-O16</f>
+        <f t="shared" si="10"/>
         <v>-0.29999999999999716</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R43" s="11"/>
     </row>
@@ -3190,59 +3239,59 @@
         <v>36</v>
       </c>
       <c r="B44" s="4">
-        <f>B18-B17</f>
+        <f t="shared" ref="B44:O44" si="11">B18-B17</f>
         <v>0</v>
       </c>
       <c r="C44" s="4">
-        <f>C18-C17</f>
+        <f t="shared" si="11"/>
         <v>-3.4000000000000057</v>
       </c>
       <c r="D44" s="4">
-        <f>D18-D17</f>
+        <f t="shared" si="11"/>
         <v>-6.9000000000000057</v>
       </c>
       <c r="E44" s="4">
-        <f>E18-E17</f>
+        <f t="shared" si="11"/>
         <v>1.7000000000000028</v>
       </c>
       <c r="F44" s="4">
-        <f>F18-F17</f>
+        <f t="shared" si="11"/>
         <v>2.7999999999999972</v>
       </c>
       <c r="G44" s="4">
-        <f>G18-G17</f>
+        <f t="shared" si="11"/>
         <v>-16</v>
       </c>
       <c r="H44" s="4">
-        <f>H18-H17</f>
+        <f t="shared" si="11"/>
         <v>-4.6000000000000014</v>
       </c>
       <c r="I44" s="4">
-        <f>I18-I17</f>
+        <f t="shared" si="11"/>
         <v>-2.5999999999999943</v>
       </c>
       <c r="J44" s="4">
-        <f>J18-J17</f>
+        <f t="shared" si="11"/>
         <v>-1.7999999999999972</v>
       </c>
       <c r="K44" s="4">
-        <f>K18-K17</f>
+        <f t="shared" si="11"/>
         <v>-1.5</v>
       </c>
       <c r="L44" s="4">
-        <f>L18-L17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M44" s="4">
-        <f>M18-M17</f>
+        <f t="shared" si="11"/>
         <v>-1.6999999999999993</v>
       </c>
       <c r="N44" s="4">
-        <f>N18-N17</f>
+        <f t="shared" si="11"/>
         <v>-0.20000000000000284</v>
       </c>
       <c r="O44" s="4">
-        <f>O18-O17</f>
+        <f t="shared" si="11"/>
         <v>-2.7000000000000028</v>
       </c>
     </row>
@@ -3251,59 +3300,59 @@
         <v>37</v>
       </c>
       <c r="B45" s="4">
-        <f t="shared" ref="B45:O45" si="0">B19-B18</f>
+        <f t="shared" ref="B45:O45" si="12">B19-B18</f>
         <v>-27.200000000000017</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>-22.799999999999997</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>-8.2000000000000028</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>-11.600000000000001</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>-5.1000000000000014</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>-16.700000000000003</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>-11.6</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>-25.800000000000011</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>-10.700000000000003</v>
       </c>
       <c r="K45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>-7.6000000000000014</v>
       </c>
       <c r="L45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>-16.599999999999994</v>
       </c>
       <c r="M45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>-2.1999999999999993</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>-10.699999999999989</v>
       </c>
       <c r="O45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>-13.599999999999994</v>
       </c>
     </row>
@@ -3312,59 +3361,59 @@
         <v>38</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" ref="B46:O46" si="1">B20-B19</f>
+        <f t="shared" ref="B46:O46" si="13">B20-B19</f>
         <v>0</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-9.9</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-3.3999999999999986</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
     </row>
@@ -3392,59 +3441,59 @@
         <v>14</v>
       </c>
       <c r="B48" s="4">
-        <f>B22</f>
+        <f t="shared" ref="B48:O48" si="14">B22</f>
         <v>118.6</v>
       </c>
       <c r="C48" s="4">
-        <f>C22</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="D48" s="4">
-        <f>D22</f>
+        <f t="shared" si="14"/>
         <v>112.3</v>
       </c>
       <c r="E48" s="4">
-        <f>E22</f>
+        <f t="shared" si="14"/>
         <v>55.1</v>
       </c>
       <c r="F48" s="4">
-        <f>F22</f>
+        <f t="shared" si="14"/>
         <v>54.9</v>
       </c>
       <c r="G48" s="4">
-        <f>G22</f>
+        <f t="shared" si="14"/>
         <v>121.8</v>
       </c>
       <c r="H48" s="4">
-        <f>H22</f>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="I48" s="4">
-        <f>I22</f>
+        <f t="shared" si="14"/>
         <v>110.5</v>
       </c>
       <c r="J48" s="4">
-        <f>J22</f>
+        <f t="shared" si="14"/>
         <v>88.6</v>
       </c>
       <c r="K48" s="4">
-        <f>K22</f>
+        <f t="shared" si="14"/>
         <v>46.7</v>
       </c>
       <c r="L48" s="4">
-        <f>L22</f>
+        <f t="shared" si="14"/>
         <v>117.1</v>
       </c>
       <c r="M48" s="4">
-        <f>M22</f>
+        <f t="shared" si="14"/>
         <v>-17.2</v>
       </c>
       <c r="N48" s="4">
-        <f>N22</f>
+        <f t="shared" si="14"/>
         <v>95.4</v>
       </c>
       <c r="O48" s="4">
-        <f>O22</f>
+        <f t="shared" si="14"/>
         <v>77.400000000000006</v>
       </c>
     </row>
@@ -3453,59 +3502,59 @@
         <v>15</v>
       </c>
       <c r="B49" s="4">
-        <f>B23</f>
+        <f t="shared" ref="B49:O49" si="15">B23</f>
         <v>23.7</v>
       </c>
       <c r="C49" s="4">
-        <f>C23</f>
+        <f t="shared" si="15"/>
         <v>16.100000000000001</v>
       </c>
       <c r="D49" s="4">
-        <f>D23</f>
+        <f t="shared" si="15"/>
         <v>27.4</v>
       </c>
       <c r="E49" s="4">
-        <f>E23</f>
+        <f t="shared" si="15"/>
         <v>13.3</v>
       </c>
       <c r="F49" s="4">
-        <f>F23</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G49" s="4">
-        <f>G23</f>
+        <f t="shared" si="15"/>
         <v>6.2</v>
       </c>
       <c r="H49" s="4">
-        <f>H23</f>
+        <f t="shared" si="15"/>
         <v>1.9</v>
       </c>
       <c r="I49" s="4">
-        <f>I23</f>
+        <f t="shared" si="15"/>
         <v>-2.1</v>
       </c>
       <c r="J49" s="4">
-        <f>J23</f>
+        <f t="shared" si="15"/>
         <v>-5</v>
       </c>
       <c r="K49" s="4">
-        <f>K23</f>
+        <f t="shared" si="15"/>
         <v>1.7</v>
       </c>
       <c r="L49" s="4">
-        <f>L23</f>
+        <f t="shared" si="15"/>
         <v>16.3</v>
       </c>
       <c r="M49" s="4">
-        <f>M23</f>
+        <f t="shared" si="15"/>
         <v>3.9</v>
       </c>
       <c r="N49" s="4">
-        <f>N23</f>
+        <f t="shared" si="15"/>
         <v>-3.1</v>
       </c>
       <c r="O49" s="4">
-        <f>O23</f>
+        <f t="shared" si="15"/>
         <v>7.7</v>
       </c>
     </row>
@@ -3514,59 +3563,59 @@
         <v>16</v>
       </c>
       <c r="B50" s="4">
-        <f>B24</f>
+        <f t="shared" ref="B50:O50" si="16">B24</f>
         <v>33.9</v>
       </c>
       <c r="C50" s="4">
-        <f>C24</f>
+        <f t="shared" si="16"/>
         <v>41.6</v>
       </c>
       <c r="D50" s="4">
-        <f>D24</f>
+        <f t="shared" si="16"/>
         <v>49.3</v>
       </c>
       <c r="E50" s="4">
-        <f>E24</f>
+        <f t="shared" si="16"/>
         <v>14.8</v>
       </c>
       <c r="F50" s="4">
-        <f>F24</f>
+        <f t="shared" si="16"/>
         <v>37.200000000000003</v>
       </c>
       <c r="G50" s="4">
-        <f>G24</f>
+        <f t="shared" si="16"/>
         <v>25.3</v>
       </c>
       <c r="H50" s="4">
-        <f>H24</f>
+        <f t="shared" si="16"/>
         <v>-2.6</v>
       </c>
       <c r="I50" s="4">
-        <f>I24</f>
+        <f t="shared" si="16"/>
         <v>57.9</v>
       </c>
       <c r="J50" s="4">
-        <f>J24</f>
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
       <c r="K50" s="4">
-        <f>K24</f>
+        <f t="shared" si="16"/>
         <v>30.1</v>
       </c>
       <c r="L50" s="4">
-        <f>L24</f>
+        <f t="shared" si="16"/>
         <v>40.9</v>
       </c>
       <c r="M50" s="4">
-        <f>M24</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="N50" s="4">
-        <f>N24</f>
+        <f t="shared" si="16"/>
         <v>37.6</v>
       </c>
       <c r="O50" s="4">
-        <f>O24</f>
+        <f t="shared" si="16"/>
         <v>32.200000000000003</v>
       </c>
     </row>
@@ -3575,59 +3624,59 @@
         <v>17</v>
       </c>
       <c r="B51" s="4">
-        <f>B25</f>
+        <f t="shared" ref="B51:O51" si="17">B25</f>
         <v>1.7</v>
       </c>
       <c r="C51" s="4">
-        <f>C25</f>
+        <f t="shared" si="17"/>
         <v>6.7</v>
       </c>
       <c r="D51" s="4">
-        <f>D25</f>
+        <f t="shared" si="17"/>
         <v>6.8</v>
       </c>
       <c r="E51" s="4">
-        <f>E25</f>
+        <f t="shared" si="17"/>
         <v>2.5</v>
       </c>
       <c r="F51" s="4">
-        <f>F25</f>
+        <f t="shared" si="17"/>
         <v>-2.4</v>
       </c>
       <c r="G51" s="4">
-        <f>G25</f>
+        <f t="shared" si="17"/>
         <v>11.9</v>
       </c>
       <c r="H51" s="4">
-        <f>H25</f>
+        <f t="shared" si="17"/>
         <v>-0.8</v>
       </c>
       <c r="I51" s="4">
-        <f>I25</f>
+        <f t="shared" si="17"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="J51" s="4">
-        <f>J25</f>
+        <f t="shared" si="17"/>
         <v>7.1</v>
       </c>
       <c r="K51" s="4">
-        <f>K25</f>
+        <f t="shared" si="17"/>
         <v>-0.2</v>
       </c>
       <c r="L51" s="4">
-        <f>L25</f>
+        <f t="shared" si="17"/>
         <v>15.4</v>
       </c>
       <c r="M51" s="4">
-        <f>M25</f>
+        <f t="shared" si="17"/>
         <v>-10.7</v>
       </c>
       <c r="N51" s="4">
-        <f>N25</f>
+        <f t="shared" si="17"/>
         <v>13.3</v>
       </c>
       <c r="O51" s="4">
-        <f>O25</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
     </row>
@@ -3636,59 +3685,59 @@
         <v>19</v>
       </c>
       <c r="B52" s="4">
-        <f>B26</f>
+        <f t="shared" ref="B52:O52" si="18">B26</f>
         <v>59.3</v>
       </c>
       <c r="C52" s="4">
-        <f>C26</f>
+        <f t="shared" si="18"/>
         <v>35.6</v>
       </c>
       <c r="D52" s="4">
-        <f>D26</f>
+        <f t="shared" si="18"/>
         <v>28.8</v>
       </c>
       <c r="E52" s="4">
-        <f>E26</f>
+        <f t="shared" si="18"/>
         <v>24.4</v>
       </c>
       <c r="F52" s="4">
-        <f>F26</f>
+        <f t="shared" si="18"/>
         <v>20.100000000000001</v>
       </c>
       <c r="G52" s="4">
-        <f>G26</f>
+        <f t="shared" si="18"/>
         <v>78.5</v>
       </c>
       <c r="H52" s="4">
-        <f>H26</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="I52" s="4">
-        <f>I26</f>
+        <f t="shared" si="18"/>
         <v>53.7</v>
       </c>
       <c r="J52" s="4">
-        <f>J26</f>
+        <f t="shared" si="18"/>
         <v>41.4</v>
       </c>
       <c r="K52" s="4">
-        <f>K26</f>
+        <f t="shared" si="18"/>
         <v>15.1</v>
       </c>
       <c r="L52" s="4">
-        <f>L26</f>
+        <f t="shared" si="18"/>
         <v>44.5</v>
       </c>
       <c r="M52" s="4">
-        <f>M26</f>
+        <f t="shared" si="18"/>
         <v>-18.399999999999999</v>
       </c>
       <c r="N52" s="4">
-        <f>N26</f>
+        <f t="shared" si="18"/>
         <v>47.6</v>
       </c>
       <c r="O52" s="4">
-        <f>O26</f>
+        <f t="shared" si="18"/>
         <v>33.4</v>
       </c>
     </row>
@@ -3705,10 +3754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:A81"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3718,7 +3767,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3797,7 +3846,7 @@
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
@@ -3811,7 +3860,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4048,14 +4097,14 @@
       <c r="O9">
         <v>64.7</v>
       </c>
-      <c r="Q9" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="R9" s="10"/>
+      <c r="Q9" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -6240,26 +6289,26 @@
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B72">
-        <f ca="1">OFFSET($O$5,0+$T72,0)</f>
+        <f t="shared" ref="B72:B79" ca="1" si="0">OFFSET($O$5,0+$T72,0)</f>
         <v>225</v>
       </c>
       <c r="C72">
-        <f ca="1">OFFSET($O$6,0+$T72,0)</f>
+        <f t="shared" ref="C72:C79" ca="1" si="1">OFFSET($O$6,0+$T72,0)</f>
         <v>89.5</v>
       </c>
       <c r="D72">
-        <f ca="1">OFFSET($O$7,0+$T72,0)</f>
+        <f t="shared" ref="D72:D79" ca="1" si="2">OFFSET($O$7,0+$T72,0)</f>
         <v>64.5</v>
       </c>
       <c r="E72">
-        <f ca="1">OFFSET($O$8,0+$T72,0)</f>
+        <f t="shared" ref="E72:E79" ca="1" si="3">OFFSET($O$8,0+$T72,0)</f>
         <v>6.1</v>
       </c>
       <c r="F72">
-        <f ca="1">OFFSET($O$9,0+$T72,0)</f>
+        <f t="shared" ref="F72:F79" ca="1" si="4">OFFSET($O$9,0+$T72,0)</f>
         <v>64.7</v>
       </c>
       <c r="T72">
@@ -6268,26 +6317,26 @@
     </row>
     <row r="73" spans="1:20">
       <c r="A73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B73">
-        <f ca="1">OFFSET($O$5,0+$T73,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>197.5</v>
       </c>
       <c r="C73">
-        <f ca="1">OFFSET($O$6,0+$T73,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>81.5</v>
       </c>
       <c r="D73">
-        <f ca="1">OFFSET($O$7,0+$T73,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59.9</v>
       </c>
       <c r="E73">
-        <f ca="1">OFFSET($O$8,0+$T73,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="F73">
-        <f ca="1">OFFSET($O$9,0+$T73,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>51.3</v>
       </c>
       <c r="T73">
@@ -6296,26 +6345,26 @@
     </row>
     <row r="74" spans="1:20">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B74">
-        <f ca="1">OFFSET($O$5,0+$T74,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>196.8</v>
       </c>
       <c r="C74">
-        <f ca="1">OFFSET($O$6,0+$T74,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>82.5</v>
       </c>
       <c r="D74">
-        <f ca="1">OFFSET($O$7,0+$T74,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60.7</v>
       </c>
       <c r="E74">
-        <f ca="1">OFFSET($O$8,0+$T74,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>4.5</v>
       </c>
       <c r="F74">
-        <f ca="1">OFFSET($O$9,0+$T74,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>49.1</v>
       </c>
       <c r="T74">
@@ -6324,26 +6373,26 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B75">
-        <f ca="1">OFFSET($O$5,0+$T75,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>152.4</v>
       </c>
       <c r="C75">
-        <f ca="1">OFFSET($O$6,0+$T75,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>25.7</v>
       </c>
       <c r="D75">
-        <f ca="1">OFFSET($O$7,0+$T75,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60.7</v>
       </c>
       <c r="E75">
-        <f ca="1">OFFSET($O$8,0+$T75,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>17.2</v>
       </c>
       <c r="F75">
-        <f ca="1">OFFSET($O$9,0+$T75,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>48.9</v>
       </c>
       <c r="T75">
@@ -6355,23 +6404,23 @@
         <v>33</v>
       </c>
       <c r="B76">
-        <f ca="1">OFFSET($O$5,0+$T76,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>111.2</v>
       </c>
       <c r="C76">
-        <f ca="1">OFFSET($O$6,0+$T76,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>-1.4</v>
       </c>
       <c r="D76">
-        <f ca="1">OFFSET($O$7,0+$T76,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60.7</v>
       </c>
       <c r="E76">
-        <f ca="1">OFFSET($O$8,0+$T76,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3.1</v>
       </c>
       <c r="F76">
-        <f ca="1">OFFSET($O$9,0+$T76,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>48.8</v>
       </c>
       <c r="T76">
@@ -6383,23 +6432,23 @@
         <v>34</v>
       </c>
       <c r="B77">
-        <f ca="1">OFFSET($O$5,0+$T77,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>95</v>
       </c>
       <c r="C77">
-        <f ca="1">OFFSET($O$6,0+$T77,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1.4</v>
       </c>
       <c r="D77">
-        <f ca="1">OFFSET($O$7,0+$T77,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>44</v>
       </c>
       <c r="E77">
-        <f ca="1">OFFSET($O$8,0+$T77,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.5</v>
       </c>
       <c r="F77">
-        <f ca="1">OFFSET($O$9,0+$T77,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>47.1</v>
       </c>
       <c r="T77">
@@ -6411,23 +6460,23 @@
         <v>35</v>
       </c>
       <c r="B78">
-        <f ca="1">OFFSET($O$5,0+$T78,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>94.7</v>
       </c>
       <c r="C78">
-        <f ca="1">OFFSET($O$6,0+$T78,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8.9</v>
       </c>
       <c r="D78">
-        <f ca="1">OFFSET($O$7,0+$T78,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>32.6</v>
       </c>
       <c r="E78">
-        <f ca="1">OFFSET($O$8,0+$T78,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>6.2</v>
       </c>
       <c r="F78">
-        <f ca="1">OFFSET($O$9,0+$T78,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>46.9</v>
       </c>
       <c r="T78">
@@ -6439,23 +6488,23 @@
         <v>36</v>
       </c>
       <c r="B79">
-        <f ca="1">OFFSET($O$5,0+$T79,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>92</v>
       </c>
       <c r="C79">
-        <f ca="1">OFFSET($O$6,0+$T79,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="D79">
-        <f ca="1">OFFSET($O$7,0+$T79,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>32.4</v>
       </c>
       <c r="E79">
-        <f ca="1">OFFSET($O$8,0+$T79,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>7.1</v>
       </c>
       <c r="F79">
-        <f ca="1">OFFSET($O$9,0+$T79,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>43.6</v>
       </c>
       <c r="T79">
@@ -6467,23 +6516,23 @@
         <v>37</v>
       </c>
       <c r="B80">
-        <f t="shared" ref="B80:B81" ca="1" si="0">OFFSET($O$5,0+$T80,0)</f>
+        <f t="shared" ref="B80:B81" ca="1" si="5">OFFSET($O$5,0+$T80,0)</f>
         <v>78.400000000000006</v>
       </c>
       <c r="C80">
-        <f t="shared" ref="C80:C81" ca="1" si="1">OFFSET($O$6,0+$T80,0)</f>
+        <f t="shared" ref="C80:C81" ca="1" si="6">OFFSET($O$6,0+$T80,0)</f>
         <v>8.3000000000000007</v>
       </c>
       <c r="D80">
-        <f t="shared" ref="D80:D81" ca="1" si="2">OFFSET($O$7,0+$T80,0)</f>
+        <f t="shared" ref="D80:D81" ca="1" si="7">OFFSET($O$7,0+$T80,0)</f>
         <v>32.200000000000003</v>
       </c>
       <c r="E80">
-        <f t="shared" ref="E80:E81" ca="1" si="3">OFFSET($O$8,0+$T80,0)</f>
+        <f t="shared" ref="E80:E81" ca="1" si="8">OFFSET($O$8,0+$T80,0)</f>
         <v>4.2</v>
       </c>
       <c r="F80">
-        <f t="shared" ref="F80:F81" ca="1" si="4">OFFSET($O$9,0+$T80,0)</f>
+        <f t="shared" ref="F80:F81" ca="1" si="9">OFFSET($O$9,0+$T80,0)</f>
         <v>33.799999999999997</v>
       </c>
       <c r="T80">
@@ -6495,23 +6544,23 @@
         <v>38</v>
       </c>
       <c r="B81">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>77.400000000000006</v>
       </c>
       <c r="C81">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>7.7</v>
       </c>
       <c r="D81">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>32.200000000000003</v>
       </c>
       <c r="E81">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
       <c r="F81">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="9"/>
         <v>33.4</v>
       </c>
       <c r="T81">
@@ -6560,459 +6609,573 @@
       </c>
     </row>
     <row r="85" spans="1:20">
-      <c r="A85" t="s">
-        <v>44</v>
+      <c r="A85" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="B85">
-        <f ca="1">OFFSET(B$5,0+$T72,0)</f>
+        <f t="shared" ref="B85:N85" ca="1" si="10">OFFSET(B$5,0+$T72,0)</f>
         <v>449.2</v>
       </c>
       <c r="C85">
-        <f ca="1">OFFSET(C$5,0+$T72,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>298</v>
       </c>
       <c r="D85">
-        <f ca="1">OFFSET(D$5,0+$T72,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>208.2</v>
       </c>
       <c r="E85">
-        <f ca="1">OFFSET(E$5,0+$T72,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>287.2</v>
       </c>
       <c r="F85">
-        <f ca="1">OFFSET(F$5,0+$T72,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>166</v>
       </c>
       <c r="G85">
-        <f ca="1">OFFSET(G$5,0+$T72,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>239.3</v>
       </c>
       <c r="H85">
-        <f ca="1">OFFSET(H$5,0+$T72,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>94.9</v>
       </c>
       <c r="I85">
-        <f ca="1">OFFSET(I$5,0+$T72,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>316.3</v>
       </c>
       <c r="J85">
-        <f ca="1">OFFSET(J$5,0+$T72,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>186.4</v>
       </c>
       <c r="K85">
-        <f ca="1">OFFSET(K$5,0+$T72,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>159.4</v>
       </c>
       <c r="L85">
-        <f ca="1">OFFSET(L$5,0+$T72,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>255</v>
       </c>
       <c r="M85">
-        <f ca="1">OFFSET(M$5,0+$T72,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>26.2</v>
       </c>
       <c r="N85">
-        <f ca="1">OFFSET(N$5,0+$T72,0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>238.5</v>
       </c>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="B86">
-        <f ca="1">OFFSET(B$5,0+$T73,0)</f>
+        <f t="shared" ref="B86:N86" ca="1" si="11">OFFSET(B$5,0+$T73,0)</f>
         <v>254.2</v>
       </c>
       <c r="C86">
-        <f ca="1">OFFSET(C$5,0+$T73,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>239.6</v>
       </c>
       <c r="D86">
-        <f ca="1">OFFSET(D$5,0+$T73,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>182.2</v>
       </c>
       <c r="E86">
-        <f ca="1">OFFSET(E$5,0+$T73,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>163</v>
       </c>
       <c r="F86">
-        <f ca="1">OFFSET(F$5,0+$T73,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>211.9</v>
       </c>
       <c r="G86">
-        <f ca="1">OFFSET(G$5,0+$T73,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>349.5</v>
       </c>
       <c r="H86">
-        <f ca="1">OFFSET(H$5,0+$T73,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>99.4</v>
       </c>
       <c r="I86">
-        <f ca="1">OFFSET(I$5,0+$T73,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>268.89999999999998</v>
       </c>
       <c r="J86">
-        <f ca="1">OFFSET(J$5,0+$T73,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>190.7</v>
       </c>
       <c r="K86">
-        <f ca="1">OFFSET(K$5,0+$T73,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>128.19999999999999</v>
       </c>
       <c r="L86">
-        <f ca="1">OFFSET(L$5,0+$T73,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>227.3</v>
       </c>
       <c r="M86">
-        <f ca="1">OFFSET(M$5,0+$T73,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>26.2</v>
       </c>
       <c r="N86">
-        <f ca="1">OFFSET(N$5,0+$T73,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>225.8</v>
       </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="B87">
-        <f ca="1">OFFSET(B$5,0+$T74,0)</f>
+        <f t="shared" ref="B87:N87" ca="1" si="12">OFFSET(B$5,0+$T74,0)</f>
         <v>254.2</v>
       </c>
       <c r="C87">
-        <f ca="1">OFFSET(C$5,0+$T74,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>235.6</v>
       </c>
       <c r="D87">
-        <f ca="1">OFFSET(D$5,0+$T74,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>182.2</v>
       </c>
       <c r="E87">
-        <f ca="1">OFFSET(E$5,0+$T74,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>163</v>
       </c>
       <c r="F87">
-        <f ca="1">OFFSET(F$5,0+$T74,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>211.9</v>
       </c>
       <c r="G87">
-        <f ca="1">OFFSET(G$5,0+$T74,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>349.5</v>
       </c>
       <c r="H87">
-        <f ca="1">OFFSET(H$5,0+$T74,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>99.4</v>
       </c>
       <c r="I87">
-        <f ca="1">OFFSET(I$5,0+$T74,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>268.89999999999998</v>
       </c>
       <c r="J87">
-        <f ca="1">OFFSET(J$5,0+$T74,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>190.7</v>
       </c>
       <c r="K87">
-        <f ca="1">OFFSET(K$5,0+$T74,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>123.1</v>
       </c>
       <c r="L87">
-        <f ca="1">OFFSET(L$5,0+$T74,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>225.8</v>
       </c>
       <c r="M87">
-        <f ca="1">OFFSET(M$5,0+$T74,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>27.3</v>
       </c>
       <c r="N87">
-        <f ca="1">OFFSET(N$5,0+$T74,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>226.8</v>
       </c>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B88">
-        <f ca="1">OFFSET(B$5,0+$T75,0)</f>
+        <f t="shared" ref="B88:N88" ca="1" si="13">OFFSET(B$5,0+$T75,0)</f>
         <v>186.4</v>
       </c>
       <c r="C88">
-        <f ca="1">OFFSET(C$5,0+$T75,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>182.6</v>
       </c>
       <c r="D88">
-        <f ca="1">OFFSET(D$5,0+$T75,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>137</v>
       </c>
       <c r="E88">
-        <f ca="1">OFFSET(E$5,0+$T75,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>124.7</v>
       </c>
       <c r="F88">
-        <f ca="1">OFFSET(F$5,0+$T75,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>162.5</v>
       </c>
       <c r="G88">
-        <f ca="1">OFFSET(G$5,0+$T75,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>287</v>
       </c>
       <c r="H88">
-        <f ca="1">OFFSET(H$5,0+$T75,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>67.2</v>
       </c>
       <c r="I88">
-        <f ca="1">OFFSET(I$5,0+$T75,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>191.1</v>
       </c>
       <c r="J88">
-        <f ca="1">OFFSET(J$5,0+$T75,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>156.80000000000001</v>
       </c>
       <c r="K88">
-        <f ca="1">OFFSET(K$5,0+$T75,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>98.4</v>
       </c>
       <c r="L88">
-        <f ca="1">OFFSET(L$5,0+$T75,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>197.6</v>
       </c>
       <c r="M88">
-        <f ca="1">OFFSET(M$5,0+$T75,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>13.6</v>
       </c>
       <c r="N88">
-        <f ca="1">OFFSET(N$5,0+$T75,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>176.9</v>
       </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B89">
-        <f ca="1">OFFSET(B$5,0+$T76,0)</f>
+        <f t="shared" ref="B89:N89" ca="1" si="14">OFFSET(B$5,0+$T76,0)</f>
         <v>161</v>
       </c>
       <c r="C89">
-        <f ca="1">OFFSET(C$5,0+$T76,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>153.69999999999999</v>
       </c>
       <c r="D89">
-        <f ca="1">OFFSET(D$5,0+$T76,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>112.3</v>
       </c>
       <c r="E89">
-        <f ca="1">OFFSET(E$5,0+$T76,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>65.3</v>
       </c>
       <c r="F89">
-        <f ca="1">OFFSET(F$5,0+$T76,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>77.099999999999994</v>
       </c>
       <c r="G89">
-        <f ca="1">OFFSET(G$5,0+$T76,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>175.8</v>
       </c>
       <c r="H89">
-        <f ca="1">OFFSET(H$5,0+$T76,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>46.3</v>
       </c>
       <c r="I89">
-        <f ca="1">OFFSET(I$5,0+$T76,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>160.5</v>
       </c>
       <c r="J89">
-        <f ca="1">OFFSET(J$5,0+$T76,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>117.1</v>
       </c>
       <c r="K89">
-        <f ca="1">OFFSET(K$5,0+$T76,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>69.7</v>
       </c>
       <c r="L89">
-        <f ca="1">OFFSET(L$5,0+$T76,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>170.7</v>
       </c>
       <c r="M89">
-        <f ca="1">OFFSET(M$5,0+$T76,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>-2.7</v>
       </c>
       <c r="N89">
-        <f ca="1">OFFSET(N$5,0+$T76,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>138.30000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B90">
-        <f ca="1">OFFSET(B$5,0+$T77,0)</f>
+        <f t="shared" ref="B90:N90" ca="1" si="15">OFFSET(B$5,0+$T77,0)</f>
         <v>144.1</v>
       </c>
       <c r="C90">
-        <f ca="1">OFFSET(C$5,0+$T77,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>116.1</v>
       </c>
       <c r="D90">
-        <f ca="1">OFFSET(D$5,0+$T77,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>105.5</v>
       </c>
       <c r="E90">
-        <f ca="1">OFFSET(E$5,0+$T77,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>59.1</v>
       </c>
       <c r="F90">
-        <f ca="1">OFFSET(F$5,0+$T77,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>58.4</v>
       </c>
       <c r="G90">
-        <f ca="1">OFFSET(G$5,0+$T77,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>157.1</v>
       </c>
       <c r="H90">
-        <f ca="1">OFFSET(H$5,0+$T77,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>32.799999999999997</v>
       </c>
       <c r="I90">
-        <f ca="1">OFFSET(I$5,0+$T77,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>155.30000000000001</v>
       </c>
       <c r="J90">
-        <f ca="1">OFFSET(J$5,0+$T77,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>98.6</v>
       </c>
       <c r="K90">
-        <f ca="1">OFFSET(K$5,0+$T77,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>58.4</v>
       </c>
       <c r="L90">
-        <f ca="1">OFFSET(L$5,0+$T77,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>142.30000000000001</v>
       </c>
       <c r="M90">
-        <f ca="1">OFFSET(M$5,0+$T77,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>-10.8</v>
       </c>
       <c r="N90">
-        <f ca="1">OFFSET(N$5,0+$T77,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>117.7</v>
       </c>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B91">
-        <f ca="1">OFFSET(B$5,0+$T78,0)</f>
+        <f t="shared" ref="B91:N91" ca="1" si="16">OFFSET(B$5,0+$T78,0)</f>
         <v>145.80000000000001</v>
       </c>
       <c r="C91">
-        <f ca="1">OFFSET(C$5,0+$T78,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>126.2</v>
       </c>
       <c r="D91">
-        <f ca="1">OFFSET(D$5,0+$T78,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>127.4</v>
       </c>
       <c r="E91">
-        <f ca="1">OFFSET(E$5,0+$T78,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>65</v>
       </c>
       <c r="F91">
-        <f ca="1">OFFSET(F$5,0+$T78,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>57.2</v>
       </c>
       <c r="G91">
-        <f ca="1">OFFSET(G$5,0+$T78,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>154.5</v>
       </c>
       <c r="H91">
-        <f ca="1">OFFSET(H$5,0+$T78,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>28.6</v>
       </c>
       <c r="I91">
-        <f ca="1">OFFSET(I$5,0+$T78,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>138.9</v>
       </c>
       <c r="J91">
-        <f ca="1">OFFSET(J$5,0+$T78,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>101.1</v>
       </c>
       <c r="K91">
-        <f ca="1">OFFSET(K$5,0+$T78,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>59.2</v>
       </c>
       <c r="L91">
-        <f ca="1">OFFSET(L$5,0+$T78,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>133.69999999999999</v>
       </c>
       <c r="M91">
-        <f ca="1">OFFSET(M$5,0+$T78,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>-13.3</v>
       </c>
       <c r="N91">
-        <f ca="1">OFFSET(N$5,0+$T78,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>106.3</v>
       </c>
     </row>
     <row r="92" spans="1:20">
       <c r="A92" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ref="B92:N92" ca="1" si="17">OFFSET(B$5,0+$T79,0)</f>
+        <v>145.80000000000001</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="17"/>
+        <v>122.8</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="17"/>
+        <v>120.5</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="17"/>
+        <v>66.7</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ca="1" si="17"/>
+        <v>138.5</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ca="1" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ca="1" si="17"/>
+        <v>136.30000000000001</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ca="1" si="17"/>
+        <v>99.3</v>
+      </c>
+      <c r="K92">
+        <f t="shared" ca="1" si="17"/>
+        <v>57.7</v>
+      </c>
+      <c r="L92">
+        <f t="shared" ca="1" si="17"/>
+        <v>133.69999999999999</v>
+      </c>
+      <c r="M92">
+        <f t="shared" ca="1" si="17"/>
+        <v>-15</v>
+      </c>
+      <c r="N92">
+        <f t="shared" ca="1" si="17"/>
+        <v>106.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ref="B93:N93" ca="1" si="18">OFFSET(B$5,0+$T80,0)</f>
+        <v>118.6</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="18"/>
+        <v>112.3</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="18"/>
+        <v>55.1</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="18"/>
+        <v>54.9</v>
+      </c>
+      <c r="G93">
+        <f t="shared" ca="1" si="18"/>
+        <v>121.8</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ca="1" si="18"/>
+        <v>12.4</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ca="1" si="18"/>
+        <v>110.5</v>
+      </c>
+      <c r="J93">
+        <f t="shared" ca="1" si="18"/>
+        <v>88.6</v>
+      </c>
+      <c r="K93">
+        <f t="shared" ca="1" si="18"/>
+        <v>50.1</v>
+      </c>
+      <c r="L93">
+        <f t="shared" ca="1" si="18"/>
+        <v>117.1</v>
+      </c>
+      <c r="M93">
+        <f t="shared" ca="1" si="18"/>
+        <v>-17.2</v>
+      </c>
+      <c r="N93">
+        <f t="shared" ca="1" si="18"/>
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" t="s">
         <v>38</v>
       </c>
-      <c r="B92">
-        <f ca="1">OFFSET(B$5,0+$T79,0)</f>
-        <v>145.80000000000001</v>
-      </c>
-      <c r="C92">
-        <f ca="1">OFFSET(C$5,0+$T79,0)</f>
-        <v>122.8</v>
-      </c>
-      <c r="D92">
-        <f ca="1">OFFSET(D$5,0+$T79,0)</f>
-        <v>120.5</v>
-      </c>
-      <c r="E92">
-        <f ca="1">OFFSET(E$5,0+$T79,0)</f>
-        <v>66.7</v>
-      </c>
-      <c r="F92">
-        <f ca="1">OFFSET(F$5,0+$T79,0)</f>
-        <v>60</v>
-      </c>
-      <c r="G92">
-        <f ca="1">OFFSET(G$5,0+$T79,0)</f>
-        <v>138.5</v>
-      </c>
-      <c r="H92">
-        <f ca="1">OFFSET(H$5,0+$T79,0)</f>
-        <v>24</v>
-      </c>
-      <c r="I92">
-        <f ca="1">OFFSET(I$5,0+$T79,0)</f>
-        <v>136.30000000000001</v>
-      </c>
-      <c r="J92">
-        <f ca="1">OFFSET(J$5,0+$T79,0)</f>
-        <v>99.3</v>
-      </c>
-      <c r="K92">
-        <f ca="1">OFFSET(K$5,0+$T79,0)</f>
-        <v>57.7</v>
-      </c>
-      <c r="L92">
-        <f ca="1">OFFSET(L$5,0+$T79,0)</f>
-        <v>133.69999999999999</v>
-      </c>
-      <c r="M92">
-        <f ca="1">OFFSET(M$5,0+$T79,0)</f>
-        <v>-15</v>
-      </c>
-      <c r="N92">
-        <f ca="1">OFFSET(N$5,0+$T79,0)</f>
-        <v>106.1</v>
+      <c r="B94">
+        <f t="shared" ref="B94:N94" ca="1" si="19">OFFSET(B$5,0+$T81,0)</f>
+        <v>118.6</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="19"/>
+        <v>112.3</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="19"/>
+        <v>55.1</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="19"/>
+        <v>54.9</v>
+      </c>
+      <c r="G94">
+        <f t="shared" ca="1" si="19"/>
+        <v>121.8</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ca="1" si="19"/>
+        <v>2.5</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ca="1" si="19"/>
+        <v>110.5</v>
+      </c>
+      <c r="J94">
+        <f t="shared" ca="1" si="19"/>
+        <v>88.6</v>
+      </c>
+      <c r="K94">
+        <f t="shared" ca="1" si="19"/>
+        <v>46.7</v>
+      </c>
+      <c r="L94">
+        <f t="shared" ca="1" si="19"/>
+        <v>117.1</v>
+      </c>
+      <c r="M94">
+        <f t="shared" ca="1" si="19"/>
+        <v>-17.2</v>
+      </c>
+      <c r="N94">
+        <f t="shared" ca="1" si="19"/>
+        <v>95.4</v>
       </c>
     </row>
   </sheetData>
@@ -7030,7 +7193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G57" sqref="A48:G57"/>
     </sheetView>
   </sheetViews>
@@ -7072,7 +7235,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
@@ -7086,12 +7249,12 @@
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>418</v>
@@ -7135,7 +7298,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -7314,7 +7477,7 @@
         <v>11524</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U8" s="10"/>
     </row>
@@ -7496,12 +7659,12 @@
     </row>
     <row r="13" spans="1:21" s="5" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <f t="shared" ref="B14:N14" si="0">B3-B5</f>
@@ -7558,12 +7721,12 @@
     </row>
     <row r="15" spans="1:21" s="5" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <f t="shared" ref="B16:N16" si="1">B5+B$14</f>
@@ -7620,7 +7783,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <f t="shared" ref="B17:N17" si="2">B6+B$14</f>
@@ -7677,7 +7840,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <f t="shared" ref="B18:N18" si="3">B7+B$14</f>
@@ -7734,7 +7897,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <f t="shared" ref="B19:N19" si="4">B8+B$14</f>
@@ -7791,7 +7954,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <f t="shared" ref="B20:N20" si="5">B9+B$14</f>
@@ -7848,7 +8011,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21">
         <f t="shared" ref="B21:N21" si="6">B10+B$14</f>
@@ -7905,7 +8068,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22">
         <f t="shared" ref="B22:N22" si="7">B11+B$14</f>
@@ -7962,7 +8125,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <f t="shared" ref="B23:N23" si="8">B12+B$14</f>
@@ -8019,7 +8182,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <f>B12</f>
@@ -8076,12 +8239,12 @@
     </row>
     <row r="25" spans="1:16" s="5" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="6">
         <f t="shared" ref="B26:N26" si="10">(B16-B$16)/B$16</f>
@@ -8143,7 +8306,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="6">
         <f t="shared" ref="B27:N27" si="11">(B17-B$16)/B$16</f>
@@ -8205,7 +8368,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="6">
         <f t="shared" ref="B28:N28" si="13">(B18-B$16)/B$16</f>
@@ -8267,7 +8430,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="6">
         <f t="shared" ref="B29:N29" si="14">(B19-B$16)/B$16</f>
@@ -8329,7 +8492,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="6">
         <f t="shared" ref="B30:N30" si="15">(B20-B$16)/B$16</f>
@@ -8391,7 +8554,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="6">
         <f t="shared" ref="B31:N31" si="16">(B21-B$16)/B$16</f>
@@ -8453,7 +8616,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="6">
         <f t="shared" ref="B32:N32" si="17">(B22-B$16)/B$16</f>
@@ -8515,7 +8678,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="6">
         <f t="shared" ref="B33:N33" si="18">(B23-B$16)/B$16</f>
@@ -8577,7 +8740,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="6">
         <f t="shared" ref="B34:N34" si="19">(B24-B$16)/B$16</f>
@@ -8639,42 +8802,42 @@
     </row>
     <row r="35" spans="1:16" s="1" customFormat="1">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="B36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>8984</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>15847</v>
       </c>
       <c r="G38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>16123</v>
@@ -8682,7 +8845,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>16945</v>
@@ -8690,7 +8853,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>18213</v>
@@ -8698,7 +8861,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>21495</v>
@@ -8706,7 +8869,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>21939</v>
@@ -8714,7 +8877,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>21919</v>
@@ -8722,7 +8885,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>21985</v>
@@ -8730,7 +8893,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>22533</v>
@@ -8743,24 +8906,24 @@
     </row>
     <row r="48" spans="1:16">
       <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
         <v>66</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>67</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>68</v>
       </c>
-      <c r="F48" t="s">
-        <v>69</v>
-      </c>
       <c r="G48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <f t="shared" ref="B49:B57" si="20">B38-B$37</f>
@@ -8773,7 +8936,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <f t="shared" si="20"/>
@@ -8802,7 +8965,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <f t="shared" si="20"/>
@@ -8831,7 +8994,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <f t="shared" si="20"/>
@@ -8860,7 +9023,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53">
         <f t="shared" si="20"/>
@@ -8889,7 +9052,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54">
         <f t="shared" si="20"/>
@@ -8918,7 +9081,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55">
         <f t="shared" si="20"/>
@@ -8947,7 +9110,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56">
         <f t="shared" si="20"/>
@@ -8976,7 +9139,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57">
         <f t="shared" si="20"/>
@@ -9026,24 +9189,24 @@
   <sheetData>
     <row r="1" spans="3:11">
       <c r="C1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="3:11" ht="16">
       <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>112</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>113</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>114</v>
-      </c>
-      <c r="G2" t="s">
-        <v>115</v>
       </c>
       <c r="K2" s="8"/>
     </row>
@@ -9052,12 +9215,12 @@
         <v>2</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="3:11" ht="16">
       <c r="K4" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="3:11" ht="16">
@@ -9065,23 +9228,23 @@
         <v>2</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="16">
       <c r="G6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="3:11" ht="16">
       <c r="G7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="3:11" ht="16">
@@ -9089,7 +9252,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="3:11" ht="16">
@@ -9097,7 +9260,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="3:11" ht="16">
@@ -9105,7 +9268,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="3:11" ht="16">
@@ -9113,7 +9276,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="16">
@@ -9121,7 +9284,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="3:11" ht="16">
@@ -9129,7 +9292,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="3:11" ht="16">
@@ -9137,7 +9300,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="3:11" ht="16">
@@ -9145,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="3:11" ht="16">
@@ -9153,15 +9316,15 @@
         <v>2</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="4:11" ht="16">
       <c r="G17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="4:11" ht="16">
@@ -9169,7 +9332,7 @@
     </row>
     <row r="19" spans="4:11" ht="16">
       <c r="K19" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="4:11" ht="16">
@@ -9177,33 +9340,33 @@
         <v>11</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="4:11" ht="16">
       <c r="K21" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="4:11" ht="16">
       <c r="K22" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="4:11" ht="16">
       <c r="G23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="4:11" ht="16">
       <c r="G24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="4:11" ht="16">
@@ -9211,7 +9374,7 @@
         <v>11</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="4:11" ht="16">
@@ -9219,7 +9382,7 @@
         <v>22</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="4:11" ht="16">
@@ -9227,49 +9390,49 @@
         <v>22</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="4:11" ht="16">
       <c r="K28" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="4:11" ht="16">
       <c r="K29" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="4:11" ht="16">
       <c r="G30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="4:11" ht="16">
       <c r="G31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="4:11" ht="16">
       <c r="G32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="3:11" ht="16">
       <c r="G33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="3:11" ht="16">
@@ -9277,7 +9440,7 @@
         <v>2</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="3:11" ht="16">
@@ -9285,7 +9448,7 @@
         <v>2</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="3:11" ht="16">
@@ -9293,7 +9456,7 @@
         <v>11</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="3:11" ht="16">
@@ -9301,7 +9464,7 @@
         <v>22</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="3:11" ht="16">
@@ -9309,7 +9472,7 @@
         <v>22</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="3:11" ht="16">
@@ -9317,7 +9480,7 @@
         <v>2</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="3:11" ht="16">
@@ -9325,49 +9488,49 @@
         <v>1</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="3:11" ht="16">
       <c r="K41" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="3:11" ht="16">
       <c r="K42" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="3:11" ht="16">
       <c r="G43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="3:11" ht="16">
       <c r="G44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="3:11" ht="16">
       <c r="G45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="3:11" ht="16">
       <c r="G46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="3:11" ht="16">
@@ -9375,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="3:11" ht="16">
@@ -9383,40 +9546,40 @@
         <v>1</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="16">
       <c r="G49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="16">
       <c r="K50" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="16">
       <c r="B51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" t="s">
         <v>111</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>112</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>113</v>
       </c>
-      <c r="F51" t="s">
-        <v>114</v>
-      </c>
       <c r="K51" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="2:11">
@@ -9450,10 +9613,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O63"/>
+  <dimension ref="A2:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O63"/>
+      <selection activeCell="A2" sqref="A2:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9463,2490 +9626,425 @@
   <sheetData>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" t="s">
-        <v>41</v>
+        <v>127</v>
+      </c>
+      <c r="B2">
+        <v>418</v>
+      </c>
+      <c r="C2">
+        <v>1012</v>
+      </c>
+      <c r="D2">
+        <v>412</v>
+      </c>
+      <c r="E2">
+        <v>3792</v>
+      </c>
+      <c r="F2">
+        <v>29502</v>
+      </c>
+      <c r="G2">
+        <v>4090</v>
+      </c>
+      <c r="H2">
+        <v>2576</v>
+      </c>
+      <c r="I2">
+        <v>1402</v>
+      </c>
+      <c r="J2">
+        <v>1628</v>
+      </c>
+      <c r="K2">
+        <v>13982</v>
+      </c>
+      <c r="L2">
+        <v>12784</v>
+      </c>
+      <c r="M2">
+        <v>2454</v>
+      </c>
+      <c r="N2">
+        <v>17248</v>
+      </c>
+      <c r="O2">
+        <v>7023.1</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>418</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>412</v>
+      </c>
+      <c r="E3">
+        <v>3792</v>
+      </c>
+      <c r="F3">
+        <v>29502</v>
+      </c>
+      <c r="G3">
+        <v>4090</v>
+      </c>
+      <c r="H3">
+        <v>2576</v>
+      </c>
+      <c r="I3">
+        <v>1402</v>
+      </c>
+      <c r="J3">
+        <v>1628</v>
+      </c>
+      <c r="K3">
+        <v>13670</v>
+      </c>
+      <c r="L3">
+        <v>12724</v>
+      </c>
+      <c r="M3">
+        <v>2474</v>
+      </c>
+      <c r="N3">
+        <v>17300</v>
+      </c>
+      <c r="O3">
+        <v>6999.1</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>338</v>
+      </c>
+      <c r="C4">
+        <v>842</v>
+      </c>
+      <c r="D4">
+        <v>346</v>
+      </c>
+      <c r="E4">
+        <v>3240</v>
+      </c>
+      <c r="F4">
+        <v>24824</v>
+      </c>
+      <c r="G4">
+        <v>3522</v>
+      </c>
+      <c r="H4">
+        <v>2160</v>
+      </c>
+      <c r="I4">
+        <v>1106</v>
+      </c>
+      <c r="J4">
+        <v>1438</v>
+      </c>
+      <c r="K4">
+        <v>12158</v>
+      </c>
+      <c r="L4">
+        <v>11626</v>
+      </c>
+      <c r="M4">
+        <v>2208</v>
+      </c>
+      <c r="N4">
+        <v>14660</v>
+      </c>
+      <c r="O4">
+        <v>6036</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>449.2</v>
+        <v>308</v>
       </c>
       <c r="C5">
-        <v>298</v>
+        <v>756</v>
       </c>
       <c r="D5">
-        <v>208.2</v>
+        <v>310</v>
       </c>
       <c r="E5">
-        <v>287.2</v>
+        <v>2384</v>
       </c>
       <c r="F5">
-        <v>166</v>
+        <v>16754</v>
       </c>
       <c r="G5">
-        <v>239.3</v>
+        <v>2510</v>
       </c>
       <c r="H5">
-        <v>94.9</v>
+        <v>1890</v>
       </c>
       <c r="I5">
-        <v>316.3</v>
+        <v>990</v>
       </c>
       <c r="J5">
-        <v>186.4</v>
+        <v>1216</v>
       </c>
       <c r="K5">
-        <v>159.4</v>
+        <v>10402</v>
       </c>
       <c r="L5">
-        <v>255</v>
+        <v>10572</v>
       </c>
       <c r="M5">
-        <v>26.2</v>
+        <v>1892</v>
       </c>
       <c r="N5">
-        <v>238.5</v>
+        <v>12616</v>
       </c>
       <c r="O5">
-        <v>225</v>
+        <v>4815.3999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B6">
-        <v>159.30000000000001</v>
+        <v>288</v>
       </c>
       <c r="C6">
-        <v>99.3</v>
+        <v>644</v>
       </c>
       <c r="D6">
-        <v>71.2</v>
+        <v>300</v>
       </c>
       <c r="E6">
-        <v>140.6</v>
+        <v>2294</v>
       </c>
       <c r="F6">
-        <v>110.7</v>
+        <v>14978</v>
       </c>
       <c r="G6">
-        <v>108.6</v>
+        <v>2340</v>
       </c>
       <c r="H6">
-        <v>47.7</v>
+        <v>1716</v>
       </c>
       <c r="I6">
-        <v>92.6</v>
+        <v>970</v>
       </c>
       <c r="J6">
-        <v>60.7</v>
+        <v>1112</v>
       </c>
       <c r="K6">
-        <v>69.599999999999994</v>
+        <v>9704</v>
       </c>
       <c r="L6">
-        <v>78.099999999999994</v>
+        <v>9466</v>
       </c>
       <c r="M6">
-        <v>31.7</v>
+        <v>1734</v>
       </c>
       <c r="N6">
-        <v>93.9</v>
+        <v>11524</v>
       </c>
       <c r="O6">
-        <v>89.5</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>128.80000000000001</v>
+        <v>290</v>
       </c>
       <c r="C7">
-        <v>65.8</v>
+        <v>674</v>
       </c>
       <c r="D7">
-        <v>76.7</v>
+        <v>332</v>
       </c>
       <c r="E7">
-        <v>68.900000000000006</v>
+        <v>2380</v>
       </c>
       <c r="F7">
-        <v>40.799999999999997</v>
+        <v>14872</v>
       </c>
       <c r="G7">
-        <v>56.5</v>
+        <v>2316</v>
       </c>
       <c r="H7">
-        <v>20.3</v>
+        <v>1662</v>
       </c>
       <c r="I7">
-        <v>103.2</v>
+        <v>908</v>
       </c>
       <c r="J7">
-        <v>71.400000000000006</v>
+        <v>1126</v>
       </c>
       <c r="K7">
-        <v>51.6</v>
+        <v>9756</v>
       </c>
       <c r="L7">
-        <v>75.900000000000006</v>
+        <v>9128</v>
       </c>
       <c r="M7">
-        <v>22.6</v>
+        <v>1686</v>
       </c>
       <c r="N7">
-        <v>56.4</v>
+        <v>10920</v>
       </c>
       <c r="O7">
-        <v>64.5</v>
+        <v>4311.5</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>1.7</v>
+        <v>290</v>
       </c>
       <c r="C8">
-        <v>17.399999999999999</v>
+        <v>664</v>
       </c>
       <c r="D8">
-        <v>9.6</v>
+        <v>322</v>
       </c>
       <c r="E8">
-        <v>10.1</v>
+        <v>2404</v>
       </c>
       <c r="F8">
-        <v>-3.6</v>
+        <v>15136</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2170</v>
       </c>
       <c r="H8">
-        <v>2.5</v>
+        <v>1602</v>
       </c>
       <c r="I8">
-        <v>14.7</v>
+        <v>898</v>
       </c>
       <c r="J8">
-        <v>5.7</v>
+        <v>1116</v>
       </c>
       <c r="K8">
-        <v>-3.1</v>
+        <v>9662</v>
       </c>
       <c r="L8">
-        <v>24.1</v>
+        <v>9128</v>
       </c>
       <c r="M8">
-        <v>-14.3</v>
+        <v>1652</v>
       </c>
       <c r="N8">
-        <v>15.1</v>
+        <v>10912</v>
       </c>
       <c r="O8">
-        <v>6.1</v>
+        <v>4304.3</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B9">
-        <v>159.30000000000001</v>
+        <v>258</v>
       </c>
       <c r="C9">
-        <v>115.4</v>
+        <v>596</v>
       </c>
       <c r="D9">
-        <v>50.7</v>
+        <v>310</v>
       </c>
       <c r="E9">
-        <v>67.599999999999994</v>
+        <v>2236</v>
       </c>
       <c r="F9">
-        <v>18</v>
+        <v>14654</v>
       </c>
       <c r="G9">
-        <v>74.3</v>
+        <v>2018</v>
       </c>
       <c r="H9">
-        <v>24.5</v>
+        <v>1452</v>
       </c>
       <c r="I9">
-        <v>105.8</v>
+        <v>800</v>
       </c>
       <c r="J9">
-        <v>48.6</v>
+        <v>1056</v>
       </c>
       <c r="K9">
-        <v>41.2</v>
+        <v>9200</v>
       </c>
       <c r="L9">
-        <v>76.900000000000006</v>
+        <v>8478</v>
       </c>
       <c r="M9">
-        <v>-13.8</v>
+        <v>1610</v>
       </c>
       <c r="N9">
-        <v>73.099999999999994</v>
+        <v>10346</v>
       </c>
       <c r="O9">
-        <v>64.7</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>254.2</v>
-      </c>
-      <c r="C11">
-        <v>239.6</v>
-      </c>
-      <c r="D11">
-        <v>182.2</v>
-      </c>
-      <c r="E11">
-        <v>163</v>
-      </c>
-      <c r="F11">
-        <v>211.9</v>
-      </c>
-      <c r="G11">
-        <v>349.5</v>
-      </c>
-      <c r="H11">
-        <v>99.4</v>
-      </c>
-      <c r="I11">
-        <v>268.89999999999998</v>
-      </c>
-      <c r="J11">
-        <v>190.7</v>
-      </c>
-      <c r="K11">
-        <v>128.19999999999999</v>
-      </c>
-      <c r="L11">
-        <v>227.3</v>
-      </c>
-      <c r="M11">
-        <v>26.2</v>
-      </c>
-      <c r="N11">
-        <v>225.8</v>
-      </c>
-      <c r="O11">
-        <v>197.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>71.2</v>
-      </c>
-      <c r="C12">
-        <v>80.5</v>
-      </c>
-      <c r="D12">
-        <v>60.3</v>
-      </c>
-      <c r="E12">
-        <v>103.7</v>
-      </c>
-      <c r="F12">
-        <v>133.30000000000001</v>
-      </c>
-      <c r="G12">
-        <v>165.3</v>
-      </c>
-      <c r="H12">
-        <v>52.6</v>
-      </c>
-      <c r="I12">
-        <v>86.3</v>
-      </c>
-      <c r="J12">
-        <v>63.6</v>
-      </c>
-      <c r="K12">
-        <v>55.2</v>
-      </c>
-      <c r="L12">
-        <v>72.8</v>
-      </c>
-      <c r="M12">
-        <v>31.7</v>
-      </c>
-      <c r="N12">
-        <v>83.3</v>
-      </c>
-      <c r="O12">
-        <v>81.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>88.1</v>
-      </c>
-      <c r="C13">
-        <v>73.8</v>
-      </c>
-      <c r="D13">
-        <v>74</v>
-      </c>
-      <c r="E13">
-        <v>28.4</v>
-      </c>
-      <c r="F13">
-        <v>56.7</v>
-      </c>
-      <c r="G13">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="H13">
-        <v>19.7</v>
-      </c>
-      <c r="I13">
-        <v>101.1</v>
-      </c>
-      <c r="J13">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="K13">
-        <v>45.8</v>
-      </c>
-      <c r="L13">
-        <v>68.2</v>
-      </c>
-      <c r="M13">
-        <v>22.6</v>
-      </c>
-      <c r="N13">
-        <v>60.1</v>
-      </c>
-      <c r="O13">
-        <v>59.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C14">
-        <v>9.4</v>
-      </c>
-      <c r="D14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E14">
-        <v>2.6</v>
-      </c>
-      <c r="F14">
-        <v>-1</v>
-      </c>
-      <c r="G14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H14">
-        <v>4.3</v>
-      </c>
-      <c r="I14">
-        <v>4.7</v>
-      </c>
-      <c r="J14">
-        <v>5.7</v>
-      </c>
-      <c r="K14">
-        <v>-3.4</v>
-      </c>
-      <c r="L14">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="M14">
-        <v>-14.3</v>
-      </c>
-      <c r="N14">
-        <v>16.2</v>
-      </c>
-      <c r="O14">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>84.7</v>
-      </c>
-      <c r="C15">
-        <v>75.8</v>
-      </c>
-      <c r="D15">
-        <v>43.8</v>
-      </c>
-      <c r="E15">
-        <v>28.2</v>
-      </c>
-      <c r="F15">
-        <v>22.9</v>
-      </c>
-      <c r="G15">
-        <v>114.1</v>
-      </c>
-      <c r="H15">
-        <v>22.8</v>
-      </c>
-      <c r="I15">
-        <v>76.8</v>
-      </c>
-      <c r="J15">
-        <v>48.6</v>
-      </c>
-      <c r="K15">
-        <v>30.5</v>
-      </c>
-      <c r="L15">
-        <v>66.7</v>
-      </c>
-      <c r="M15">
-        <v>-13.8</v>
-      </c>
-      <c r="N15">
-        <v>66.2</v>
-      </c>
-      <c r="O15">
-        <v>51.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>254.2</v>
-      </c>
-      <c r="C17">
-        <v>235.6</v>
-      </c>
-      <c r="D17">
-        <v>182.2</v>
-      </c>
-      <c r="E17">
-        <v>163</v>
-      </c>
-      <c r="F17">
-        <v>211.9</v>
-      </c>
-      <c r="G17">
-        <v>349.5</v>
-      </c>
-      <c r="H17">
-        <v>99.4</v>
-      </c>
-      <c r="I17">
-        <v>268.89999999999998</v>
-      </c>
-      <c r="J17">
-        <v>190.7</v>
-      </c>
-      <c r="K17">
-        <v>123.1</v>
-      </c>
-      <c r="L17">
-        <v>225.8</v>
-      </c>
-      <c r="M17">
-        <v>27.3</v>
-      </c>
-      <c r="N17">
-        <v>226.8</v>
-      </c>
-      <c r="O17">
-        <v>196.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>71.2</v>
-      </c>
-      <c r="C18">
-        <v>85.9</v>
-      </c>
-      <c r="D18">
-        <v>60.3</v>
-      </c>
-      <c r="E18">
-        <v>103.7</v>
-      </c>
-      <c r="F18">
-        <v>133.30000000000001</v>
-      </c>
-      <c r="G18">
-        <v>165.3</v>
-      </c>
-      <c r="H18">
-        <v>52.6</v>
-      </c>
-      <c r="I18">
-        <v>86.3</v>
-      </c>
-      <c r="J18">
-        <v>63.6</v>
-      </c>
-      <c r="K18">
-        <v>56.5</v>
-      </c>
-      <c r="L18">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="M18">
-        <v>35</v>
-      </c>
-      <c r="N18">
-        <v>84.5</v>
-      </c>
-      <c r="O18">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>88.1</v>
-      </c>
-      <c r="C19">
-        <v>79.2</v>
-      </c>
-      <c r="D19">
-        <v>74</v>
-      </c>
-      <c r="E19">
-        <v>28.4</v>
-      </c>
-      <c r="F19">
-        <v>56.7</v>
-      </c>
-      <c r="G19">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="H19">
-        <v>19.7</v>
-      </c>
-      <c r="I19">
-        <v>101.1</v>
-      </c>
-      <c r="J19">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="K19">
-        <v>47.7</v>
-      </c>
-      <c r="L19">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="M19">
-        <v>23.5</v>
-      </c>
-      <c r="N19">
-        <v>60.1</v>
-      </c>
-      <c r="O19">
-        <v>60.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C20">
-        <v>8.1</v>
-      </c>
-      <c r="D20">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E20">
-        <v>2.6</v>
-      </c>
-      <c r="F20">
-        <v>-1</v>
-      </c>
-      <c r="G20">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H20">
-        <v>4.3</v>
-      </c>
-      <c r="I20">
-        <v>4.7</v>
-      </c>
-      <c r="J20">
-        <v>5.7</v>
-      </c>
-      <c r="K20">
-        <v>-3.8</v>
-      </c>
-      <c r="L20">
-        <v>19</v>
-      </c>
-      <c r="M20">
-        <v>-14.5</v>
-      </c>
-      <c r="N20">
-        <v>16.3</v>
-      </c>
-      <c r="O20">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>84.7</v>
-      </c>
-      <c r="C21">
-        <v>62.4</v>
-      </c>
-      <c r="D21">
-        <v>43.8</v>
-      </c>
-      <c r="E21">
-        <v>28.2</v>
-      </c>
-      <c r="F21">
-        <v>22.9</v>
-      </c>
-      <c r="G21">
-        <v>114.1</v>
-      </c>
-      <c r="H21">
-        <v>22.8</v>
-      </c>
-      <c r="I21">
-        <v>76.8</v>
-      </c>
-      <c r="J21">
-        <v>48.6</v>
-      </c>
-      <c r="K21">
-        <v>22.7</v>
-      </c>
-      <c r="L21">
-        <v>62.2</v>
-      </c>
-      <c r="M21">
-        <v>-16.7</v>
-      </c>
-      <c r="N21">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="O21">
-        <v>49.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23">
-        <v>186.4</v>
-      </c>
-      <c r="C23">
-        <v>182.6</v>
-      </c>
-      <c r="D23">
-        <v>137</v>
-      </c>
-      <c r="E23">
-        <v>124.7</v>
-      </c>
-      <c r="F23">
-        <v>162.5</v>
-      </c>
-      <c r="G23">
-        <v>287</v>
-      </c>
-      <c r="H23">
-        <v>67.2</v>
-      </c>
-      <c r="I23">
-        <v>191.1</v>
-      </c>
-      <c r="J23">
-        <v>156.80000000000001</v>
-      </c>
-      <c r="K23">
-        <v>98.4</v>
-      </c>
-      <c r="L23">
-        <v>197.6</v>
-      </c>
-      <c r="M23">
-        <v>13.6</v>
-      </c>
-      <c r="N23">
-        <v>176.9</v>
-      </c>
-      <c r="O23">
-        <v>152.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24">
-        <v>-16.899999999999999</v>
-      </c>
-      <c r="C24">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>57.1</v>
-      </c>
-      <c r="F24">
-        <v>70.8</v>
-      </c>
-      <c r="G24">
-        <v>88.4</v>
-      </c>
-      <c r="H24">
-        <v>10.5</v>
-      </c>
-      <c r="I24">
-        <v>-12.6</v>
-      </c>
-      <c r="J24">
-        <v>20.7</v>
-      </c>
-      <c r="K24">
-        <v>25.1</v>
-      </c>
-      <c r="L24">
-        <v>37.6</v>
-      </c>
-      <c r="M24">
-        <v>17.7</v>
-      </c>
-      <c r="N24">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="O24">
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>88.1</v>
-      </c>
-      <c r="C25">
-        <v>79.2</v>
-      </c>
-      <c r="D25">
-        <v>74</v>
-      </c>
-      <c r="E25">
-        <v>28.4</v>
-      </c>
-      <c r="F25">
-        <v>56.7</v>
-      </c>
-      <c r="G25">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="H25">
-        <v>19.7</v>
-      </c>
-      <c r="I25">
-        <v>101.1</v>
-      </c>
-      <c r="J25">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="K25">
-        <v>47.7</v>
-      </c>
-      <c r="L25">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="M25">
-        <v>23.5</v>
-      </c>
-      <c r="N25">
-        <v>60.1</v>
-      </c>
-      <c r="O25">
-        <v>60.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26">
-        <v>30.5</v>
-      </c>
-      <c r="C26">
-        <v>25.5</v>
-      </c>
-      <c r="D26">
-        <v>19.2</v>
-      </c>
-      <c r="E26">
-        <v>11</v>
-      </c>
-      <c r="F26">
-        <v>12</v>
-      </c>
-      <c r="G26">
-        <v>16.7</v>
-      </c>
-      <c r="H26">
-        <v>14.2</v>
-      </c>
-      <c r="I26">
-        <v>27.4</v>
-      </c>
-      <c r="J26">
-        <v>14.6</v>
-      </c>
-      <c r="K26">
-        <v>3.1</v>
-      </c>
-      <c r="L26">
-        <v>27.9</v>
-      </c>
-      <c r="M26">
-        <v>-10.9</v>
-      </c>
-      <c r="N26">
-        <v>31.9</v>
-      </c>
-      <c r="O26">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27">
-        <v>84.7</v>
-      </c>
-      <c r="C27">
-        <v>61.7</v>
-      </c>
-      <c r="D27">
-        <v>43.8</v>
-      </c>
-      <c r="E27">
-        <v>28.2</v>
-      </c>
-      <c r="F27">
-        <v>22.9</v>
-      </c>
-      <c r="G27">
-        <v>114.1</v>
-      </c>
-      <c r="H27">
-        <v>22.8</v>
-      </c>
-      <c r="I27">
-        <v>75.3</v>
-      </c>
-      <c r="J27">
-        <v>48.6</v>
-      </c>
-      <c r="K27">
-        <v>22.6</v>
-      </c>
-      <c r="L27">
-        <v>62.2</v>
-      </c>
-      <c r="M27">
-        <v>-16.7</v>
-      </c>
-      <c r="N27">
-        <v>65.5</v>
-      </c>
-      <c r="O27">
-        <v>48.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29">
-        <v>161</v>
-      </c>
-      <c r="C29">
-        <v>153.69999999999999</v>
-      </c>
-      <c r="D29">
-        <v>112.3</v>
-      </c>
-      <c r="E29">
-        <v>65.3</v>
-      </c>
-      <c r="F29">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="G29">
-        <v>175.8</v>
-      </c>
-      <c r="H29">
-        <v>46.3</v>
-      </c>
-      <c r="I29">
-        <v>160.5</v>
-      </c>
-      <c r="J29">
-        <v>117.1</v>
-      </c>
-      <c r="K29">
-        <v>69.7</v>
-      </c>
-      <c r="L29">
-        <v>170.7</v>
-      </c>
-      <c r="M29">
-        <v>-2.7</v>
-      </c>
-      <c r="N29">
-        <v>138.30000000000001</v>
-      </c>
-      <c r="O29">
-        <v>111.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30">
-        <v>-16.899999999999999</v>
-      </c>
-      <c r="C30">
-        <v>8.1</v>
-      </c>
-      <c r="D30">
-        <v>-5.5</v>
-      </c>
-      <c r="E30">
-        <v>5.5</v>
-      </c>
-      <c r="F30">
-        <v>-0.3</v>
-      </c>
-      <c r="G30">
-        <v>-2.6</v>
-      </c>
-      <c r="H30">
-        <v>1.9</v>
-      </c>
-      <c r="I30">
-        <v>-16.8</v>
-      </c>
-      <c r="J30">
-        <v>-7.9</v>
-      </c>
-      <c r="K30">
-        <v>1.9</v>
-      </c>
-      <c r="L30">
-        <v>17.3</v>
-      </c>
-      <c r="M30">
-        <v>3.5</v>
-      </c>
-      <c r="N30">
-        <v>-6.7</v>
-      </c>
-      <c r="O30">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31">
-        <v>88.1</v>
-      </c>
-      <c r="C31">
-        <v>79.2</v>
-      </c>
-      <c r="D31">
-        <v>74</v>
-      </c>
-      <c r="E31">
-        <v>28.4</v>
-      </c>
-      <c r="F31">
-        <v>56.7</v>
-      </c>
-      <c r="G31">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="H31">
-        <v>19.7</v>
-      </c>
-      <c r="I31">
-        <v>101.1</v>
-      </c>
-      <c r="J31">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="K31">
-        <v>47.7</v>
-      </c>
-      <c r="L31">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="M31">
-        <v>23.5</v>
-      </c>
-      <c r="N31">
-        <v>60.1</v>
-      </c>
-      <c r="O31">
-        <v>60.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C32">
-        <v>4.7</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>3.2</v>
-      </c>
-      <c r="F32">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="G32">
-        <v>-3.5</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J32">
-        <v>3.6</v>
-      </c>
-      <c r="K32">
-        <v>-2</v>
-      </c>
-      <c r="L32">
-        <v>21.3</v>
-      </c>
-      <c r="M32">
-        <v>-12.9</v>
-      </c>
-      <c r="N32">
-        <v>19.7</v>
-      </c>
-      <c r="O32">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33">
-        <v>84.7</v>
-      </c>
-      <c r="C33">
-        <v>61.7</v>
-      </c>
-      <c r="D33">
-        <v>43.8</v>
-      </c>
-      <c r="E33">
-        <v>28.2</v>
-      </c>
-      <c r="F33">
-        <v>22.9</v>
-      </c>
-      <c r="G33">
-        <v>114.1</v>
-      </c>
-      <c r="H33">
-        <v>22.8</v>
-      </c>
-      <c r="I33">
-        <v>75.3</v>
-      </c>
-      <c r="J33">
-        <v>48.6</v>
-      </c>
-      <c r="K33">
-        <v>22.2</v>
-      </c>
-      <c r="L33">
-        <v>62.1</v>
-      </c>
-      <c r="M33">
-        <v>-16.8</v>
-      </c>
-      <c r="N33">
-        <v>65.2</v>
-      </c>
-      <c r="O33">
-        <v>48.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35">
-        <v>144.1</v>
-      </c>
-      <c r="C35">
-        <v>116.1</v>
-      </c>
-      <c r="D35">
-        <v>105.5</v>
-      </c>
-      <c r="E35">
-        <v>59.1</v>
-      </c>
-      <c r="F35">
-        <v>58.4</v>
-      </c>
-      <c r="G35">
-        <v>157.1</v>
-      </c>
-      <c r="H35">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="I35">
-        <v>155.30000000000001</v>
-      </c>
-      <c r="J35">
-        <v>98.6</v>
-      </c>
-      <c r="K35">
-        <v>58.4</v>
-      </c>
-      <c r="L35">
-        <v>142.30000000000001</v>
-      </c>
-      <c r="M35">
-        <v>-10.8</v>
-      </c>
-      <c r="N35">
-        <v>117.7</v>
-      </c>
-      <c r="O35">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36">
-        <v>3.4</v>
-      </c>
-      <c r="C36">
-        <v>8.1</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>5.5</v>
-      </c>
-      <c r="F36">
-        <v>-0.2</v>
-      </c>
-      <c r="G36">
-        <v>-0.9</v>
-      </c>
-      <c r="H36">
-        <v>1.9</v>
-      </c>
-      <c r="I36">
-        <v>-4.2</v>
-      </c>
-      <c r="J36">
-        <v>-7.9</v>
-      </c>
-      <c r="K36">
-        <v>1.7</v>
-      </c>
-      <c r="L36">
-        <v>14.2</v>
-      </c>
-      <c r="M36">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="N36">
-        <v>-6.1</v>
-      </c>
-      <c r="O36">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37">
-        <v>54.2</v>
-      </c>
-      <c r="C37">
-        <v>47</v>
-      </c>
-      <c r="D37">
-        <v>63</v>
-      </c>
-      <c r="E37">
-        <v>22.9</v>
-      </c>
-      <c r="F37">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="G37">
-        <v>49.5</v>
-      </c>
-      <c r="H37">
-        <v>6.7</v>
-      </c>
-      <c r="I37">
-        <v>83.2</v>
-      </c>
-      <c r="J37">
-        <v>53.6</v>
-      </c>
-      <c r="K37">
-        <v>37.1</v>
-      </c>
-      <c r="L37">
-        <v>50.5</v>
-      </c>
-      <c r="M37">
-        <v>16.7</v>
-      </c>
-      <c r="N37">
-        <v>47</v>
-      </c>
-      <c r="O37">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C38">
-        <v>4.7</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>2.8</v>
-      </c>
-      <c r="F38">
-        <v>-3.8</v>
-      </c>
-      <c r="G38">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="H38">
-        <v>1.9</v>
-      </c>
-      <c r="I38">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J38">
-        <v>4.3</v>
-      </c>
-      <c r="K38">
-        <v>-2</v>
-      </c>
-      <c r="L38">
-        <v>19.8</v>
-      </c>
-      <c r="M38">
-        <v>-13</v>
-      </c>
-      <c r="N38">
-        <v>16.2</v>
-      </c>
-      <c r="O38">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="C39">
-        <v>56.4</v>
-      </c>
-      <c r="D39">
-        <v>42.5</v>
-      </c>
-      <c r="E39">
-        <v>27.9</v>
-      </c>
-      <c r="F39">
-        <v>21.7</v>
-      </c>
-      <c r="G39">
-        <v>113.2</v>
-      </c>
-      <c r="H39">
-        <v>22.4</v>
-      </c>
-      <c r="I39">
-        <v>75.3</v>
-      </c>
-      <c r="J39">
-        <v>48.6</v>
-      </c>
-      <c r="K39">
-        <v>21.5</v>
-      </c>
-      <c r="L39">
-        <v>57.9</v>
-      </c>
-      <c r="M39">
-        <v>-16.8</v>
-      </c>
-      <c r="N39">
-        <v>60.6</v>
-      </c>
-      <c r="O39">
-        <v>47.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41">
-        <v>145.80000000000001</v>
-      </c>
-      <c r="C41">
-        <v>126.2</v>
-      </c>
-      <c r="D41">
-        <v>127.4</v>
-      </c>
-      <c r="E41">
-        <v>65</v>
-      </c>
-      <c r="F41">
-        <v>57.2</v>
-      </c>
-      <c r="G41">
-        <v>154.5</v>
-      </c>
-      <c r="H41">
-        <v>28.6</v>
-      </c>
-      <c r="I41">
-        <v>138.9</v>
-      </c>
-      <c r="J41">
-        <v>101.1</v>
-      </c>
-      <c r="K41">
-        <v>59.2</v>
-      </c>
-      <c r="L41">
-        <v>133.69999999999999</v>
-      </c>
-      <c r="M41">
-        <v>-13.3</v>
-      </c>
-      <c r="N41">
-        <v>106.3</v>
-      </c>
-      <c r="O41">
-        <v>94.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42">
-        <v>23.7</v>
-      </c>
-      <c r="C42">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="D42">
-        <v>27.4</v>
-      </c>
-      <c r="E42">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="H42">
-        <v>4.3</v>
-      </c>
-      <c r="I42">
-        <v>-2.1</v>
-      </c>
-      <c r="J42">
-        <v>-2.1</v>
-      </c>
-      <c r="K42">
-        <v>5.7</v>
-      </c>
-      <c r="L42">
-        <v>16.5</v>
-      </c>
-      <c r="M42">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="N42">
-        <v>-4.8</v>
-      </c>
-      <c r="O42">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43">
-        <v>33.9</v>
-      </c>
-      <c r="C43">
-        <v>41.6</v>
-      </c>
-      <c r="D43">
-        <v>49.3</v>
-      </c>
-      <c r="E43">
-        <v>15.4</v>
-      </c>
-      <c r="F43">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="G43">
-        <v>27.9</v>
-      </c>
-      <c r="H43">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="I43">
-        <v>58.9</v>
-      </c>
-      <c r="J43">
-        <v>45</v>
-      </c>
-      <c r="K43">
-        <v>30.5</v>
-      </c>
-      <c r="L43">
-        <v>40.9</v>
-      </c>
-      <c r="M43">
-        <v>8</v>
-      </c>
-      <c r="N43">
-        <v>37.9</v>
-      </c>
-      <c r="O43">
-        <v>32.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44">
-        <v>8.5</v>
-      </c>
-      <c r="C44">
-        <v>12.1</v>
-      </c>
-      <c r="D44">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E44">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F44">
-        <v>-3</v>
-      </c>
-      <c r="G44">
-        <v>2.9</v>
-      </c>
-      <c r="H44">
-        <v>4.3</v>
-      </c>
-      <c r="I44">
-        <v>6.8</v>
-      </c>
-      <c r="J44">
-        <v>9.6</v>
-      </c>
-      <c r="K44">
-        <v>1.4</v>
-      </c>
-      <c r="L44">
-        <v>19.2</v>
-      </c>
-      <c r="M44">
-        <v>-9.6999999999999993</v>
-      </c>
-      <c r="N44">
-        <v>15.3</v>
-      </c>
-      <c r="O44">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45">
-        <v>79.7</v>
-      </c>
-      <c r="C45">
-        <v>56.4</v>
-      </c>
-      <c r="D45">
-        <v>42.5</v>
-      </c>
-      <c r="E45">
-        <v>27.9</v>
-      </c>
-      <c r="F45">
-        <v>22.9</v>
-      </c>
-      <c r="G45">
-        <v>114.1</v>
-      </c>
-      <c r="H45">
-        <v>22.3</v>
-      </c>
-      <c r="I45">
-        <v>75.3</v>
-      </c>
-      <c r="J45">
-        <v>48.6</v>
-      </c>
-      <c r="K45">
-        <v>21.6</v>
-      </c>
-      <c r="L45">
-        <v>57.1</v>
-      </c>
-      <c r="M45">
-        <v>-16.8</v>
-      </c>
-      <c r="N45">
-        <v>57.9</v>
-      </c>
-      <c r="O45">
-        <v>46.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47">
-        <v>145.80000000000001</v>
-      </c>
-      <c r="C47">
-        <v>122.8</v>
-      </c>
-      <c r="D47">
-        <v>120.5</v>
-      </c>
-      <c r="E47">
-        <v>66.7</v>
-      </c>
-      <c r="F47">
-        <v>60</v>
-      </c>
-      <c r="G47">
-        <v>138.5</v>
-      </c>
-      <c r="H47">
-        <v>24</v>
-      </c>
-      <c r="I47">
-        <v>136.30000000000001</v>
-      </c>
-      <c r="J47">
-        <v>99.3</v>
-      </c>
-      <c r="K47">
-        <v>57.7</v>
-      </c>
-      <c r="L47">
-        <v>133.69999999999999</v>
-      </c>
-      <c r="M47">
-        <v>-15</v>
-      </c>
-      <c r="N47">
-        <v>106.1</v>
-      </c>
-      <c r="O47">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48">
-        <v>23.7</v>
-      </c>
-      <c r="C48">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="D48">
-        <v>27.4</v>
-      </c>
-      <c r="E48">
-        <v>15.5</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="H48">
-        <v>4.3</v>
-      </c>
-      <c r="I48">
-        <v>-2.1</v>
-      </c>
-      <c r="J48">
-        <v>-2.1</v>
-      </c>
-      <c r="K48">
-        <v>5.7</v>
-      </c>
-      <c r="L48">
-        <v>16.5</v>
-      </c>
-      <c r="M48">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="N48">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="O48">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49">
-        <v>33.9</v>
-      </c>
-      <c r="C49">
-        <v>41.6</v>
-      </c>
-      <c r="D49">
-        <v>49.3</v>
-      </c>
-      <c r="E49">
-        <v>15.4</v>
-      </c>
-      <c r="F49">
-        <v>37.4</v>
-      </c>
-      <c r="G49">
-        <v>25.3</v>
-      </c>
-      <c r="H49">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="I49">
-        <v>58.9</v>
-      </c>
-      <c r="J49">
-        <v>45</v>
-      </c>
-      <c r="K49">
-        <v>30.4</v>
-      </c>
-      <c r="L49">
-        <v>40.9</v>
-      </c>
-      <c r="M49">
-        <v>8</v>
-      </c>
-      <c r="N49">
-        <v>37.9</v>
-      </c>
-      <c r="O49">
-        <v>32.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50">
-        <v>8.5</v>
-      </c>
-      <c r="C50">
-        <v>12.1</v>
-      </c>
-      <c r="D50">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E50">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F50">
-        <v>-1.9</v>
-      </c>
-      <c r="G50">
-        <v>13.2</v>
-      </c>
-      <c r="H50">
-        <v>4.3</v>
-      </c>
-      <c r="I50">
-        <v>6.8</v>
-      </c>
-      <c r="J50">
-        <v>9.6</v>
-      </c>
-      <c r="K50">
-        <v>1.8</v>
-      </c>
-      <c r="L50">
-        <v>19.2</v>
-      </c>
-      <c r="M50">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="N50">
-        <v>15.3</v>
-      </c>
-      <c r="O50">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51">
-        <v>79.7</v>
-      </c>
-      <c r="C51">
-        <v>53</v>
-      </c>
-      <c r="D51">
-        <v>35.6</v>
-      </c>
-      <c r="E51">
-        <v>30.9</v>
-      </c>
-      <c r="F51">
-        <v>24.5</v>
-      </c>
-      <c r="G51">
-        <v>90.3</v>
-      </c>
-      <c r="H51">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="I51">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="J51">
-        <v>46.8</v>
-      </c>
-      <c r="K51">
-        <v>19.7</v>
-      </c>
-      <c r="L51">
-        <v>57.1</v>
-      </c>
-      <c r="M51">
-        <v>-18.399999999999999</v>
-      </c>
-      <c r="N51">
-        <v>57.9</v>
-      </c>
-      <c r="O51">
-        <v>43.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53">
-        <v>118.6</v>
-      </c>
-      <c r="C53">
-        <v>100</v>
-      </c>
-      <c r="D53">
-        <v>112.3</v>
-      </c>
-      <c r="E53">
-        <v>55.1</v>
-      </c>
-      <c r="F53">
-        <v>54.9</v>
-      </c>
-      <c r="G53">
-        <v>121.8</v>
-      </c>
-      <c r="H53">
-        <v>12.4</v>
-      </c>
-      <c r="I53">
-        <v>110.5</v>
-      </c>
-      <c r="J53">
-        <v>88.6</v>
-      </c>
-      <c r="K53">
-        <v>50.1</v>
-      </c>
-      <c r="L53">
-        <v>117.1</v>
-      </c>
-      <c r="M53">
-        <v>-17.2</v>
-      </c>
-      <c r="N53">
-        <v>95.4</v>
-      </c>
-      <c r="O53">
-        <v>78.400000000000006</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54">
-        <v>23.7</v>
-      </c>
-      <c r="C54">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="D54">
-        <v>27.4</v>
-      </c>
-      <c r="E54">
-        <v>13.3</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>6.2</v>
-      </c>
-      <c r="H54">
-        <v>6.8</v>
-      </c>
-      <c r="I54">
-        <v>-2.1</v>
-      </c>
-      <c r="J54">
-        <v>-5</v>
-      </c>
-      <c r="K54">
-        <v>3.8</v>
-      </c>
-      <c r="L54">
-        <v>16.3</v>
-      </c>
-      <c r="M54">
-        <v>3.9</v>
-      </c>
-      <c r="N54">
-        <v>-3.1</v>
-      </c>
-      <c r="O54">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55">
-        <v>33.9</v>
-      </c>
-      <c r="C55">
-        <v>41.6</v>
-      </c>
-      <c r="D55">
-        <v>49.3</v>
-      </c>
-      <c r="E55">
-        <v>14.8</v>
-      </c>
-      <c r="F55">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="G55">
-        <v>25.3</v>
-      </c>
-      <c r="H55">
-        <v>-2.6</v>
-      </c>
-      <c r="I55">
-        <v>57.9</v>
-      </c>
-      <c r="J55">
-        <v>45</v>
-      </c>
-      <c r="K55">
-        <v>30.1</v>
-      </c>
-      <c r="L55">
-        <v>40.9</v>
-      </c>
-      <c r="M55">
-        <v>8</v>
-      </c>
-      <c r="N55">
-        <v>37.6</v>
-      </c>
-      <c r="O55">
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56">
-        <v>1.7</v>
-      </c>
-      <c r="C56">
-        <v>6.7</v>
-      </c>
-      <c r="D56">
-        <v>6.8</v>
-      </c>
-      <c r="E56">
-        <v>2.5</v>
-      </c>
-      <c r="F56">
-        <v>-2.4</v>
-      </c>
-      <c r="G56">
-        <v>11.9</v>
-      </c>
-      <c r="H56">
-        <v>0.5</v>
-      </c>
-      <c r="I56">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J56">
-        <v>7.1</v>
-      </c>
-      <c r="K56">
-        <v>0.1</v>
-      </c>
-      <c r="L56">
-        <v>15.4</v>
-      </c>
-      <c r="M56">
-        <v>-10.7</v>
-      </c>
-      <c r="N56">
-        <v>13.3</v>
-      </c>
-      <c r="O56">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57">
-        <v>59.3</v>
-      </c>
-      <c r="C57">
-        <v>35.6</v>
-      </c>
-      <c r="D57">
-        <v>28.8</v>
-      </c>
-      <c r="E57">
-        <v>24.4</v>
-      </c>
-      <c r="F57">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="G57">
-        <v>78.5</v>
-      </c>
-      <c r="H57">
-        <v>7.7</v>
-      </c>
-      <c r="I57">
-        <v>53.7</v>
-      </c>
-      <c r="J57">
-        <v>41.4</v>
-      </c>
-      <c r="K57">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="L57">
-        <v>44.5</v>
-      </c>
-      <c r="M57">
-        <v>-18.399999999999999</v>
-      </c>
-      <c r="N57">
-        <v>47.6</v>
-      </c>
-      <c r="O57">
-        <v>33.799999999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59">
-        <v>118.6</v>
-      </c>
-      <c r="C59">
-        <v>100</v>
-      </c>
-      <c r="D59">
-        <v>112.3</v>
-      </c>
-      <c r="E59">
-        <v>55.1</v>
-      </c>
-      <c r="F59">
-        <v>54.9</v>
-      </c>
-      <c r="G59">
-        <v>121.8</v>
-      </c>
-      <c r="H59">
-        <v>2.5</v>
-      </c>
-      <c r="I59">
-        <v>110.5</v>
-      </c>
-      <c r="J59">
-        <v>88.6</v>
-      </c>
-      <c r="K59">
-        <v>46.7</v>
-      </c>
-      <c r="L59">
-        <v>117.1</v>
-      </c>
-      <c r="M59">
-        <v>-17.2</v>
-      </c>
-      <c r="N59">
-        <v>95.4</v>
-      </c>
-      <c r="O59">
-        <v>77.400000000000006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60">
-        <v>23.7</v>
-      </c>
-      <c r="C60">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="D60">
-        <v>27.4</v>
-      </c>
-      <c r="E60">
-        <v>13.3</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>6.2</v>
-      </c>
-      <c r="H60">
-        <v>1.9</v>
-      </c>
-      <c r="I60">
-        <v>-2.1</v>
-      </c>
-      <c r="J60">
-        <v>-5</v>
-      </c>
-      <c r="K60">
-        <v>1.7</v>
-      </c>
-      <c r="L60">
-        <v>16.3</v>
-      </c>
-      <c r="M60">
-        <v>3.9</v>
-      </c>
-      <c r="N60">
-        <v>-3.1</v>
-      </c>
-      <c r="O60">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61">
-        <v>33.9</v>
-      </c>
-      <c r="C61">
-        <v>41.6</v>
-      </c>
-      <c r="D61">
-        <v>49.3</v>
-      </c>
-      <c r="E61">
-        <v>14.8</v>
-      </c>
-      <c r="F61">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="G61">
-        <v>25.3</v>
-      </c>
-      <c r="H61">
-        <v>-2.6</v>
-      </c>
-      <c r="I61">
-        <v>57.9</v>
-      </c>
-      <c r="J61">
-        <v>45</v>
-      </c>
-      <c r="K61">
-        <v>30.1</v>
-      </c>
-      <c r="L61">
-        <v>40.9</v>
-      </c>
-      <c r="M61">
-        <v>8</v>
-      </c>
-      <c r="N61">
-        <v>37.6</v>
-      </c>
-      <c r="O61">
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62">
-        <v>1.7</v>
-      </c>
-      <c r="C62">
-        <v>6.7</v>
-      </c>
-      <c r="D62">
-        <v>6.8</v>
-      </c>
-      <c r="E62">
-        <v>2.5</v>
-      </c>
-      <c r="F62">
-        <v>-2.4</v>
-      </c>
-      <c r="G62">
-        <v>11.9</v>
-      </c>
-      <c r="H62">
-        <v>-0.8</v>
-      </c>
-      <c r="I62">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J62">
-        <v>7.1</v>
-      </c>
-      <c r="K62">
-        <v>-0.2</v>
-      </c>
-      <c r="L62">
-        <v>15.4</v>
-      </c>
-      <c r="M62">
-        <v>-10.7</v>
-      </c>
-      <c r="N62">
-        <v>13.3</v>
-      </c>
-      <c r="O62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63">
-        <v>59.3</v>
-      </c>
-      <c r="C63">
-        <v>35.6</v>
-      </c>
-      <c r="D63">
-        <v>28.8</v>
-      </c>
-      <c r="E63">
-        <v>24.4</v>
-      </c>
-      <c r="F63">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="G63">
-        <v>78.5</v>
-      </c>
-      <c r="H63">
-        <v>4</v>
-      </c>
-      <c r="I63">
-        <v>53.7</v>
-      </c>
-      <c r="J63">
-        <v>41.4</v>
-      </c>
-      <c r="K63">
-        <v>15.1</v>
-      </c>
-      <c r="L63">
-        <v>44.5</v>
-      </c>
-      <c r="M63">
-        <v>-18.399999999999999</v>
-      </c>
-      <c r="N63">
-        <v>47.6</v>
-      </c>
-      <c r="O63">
-        <v>33.4</v>
+      <c r="B10">
+        <v>258</v>
+      </c>
+      <c r="C10">
+        <v>596</v>
+      </c>
+      <c r="D10">
+        <v>310</v>
+      </c>
+      <c r="E10">
+        <v>2236</v>
+      </c>
+      <c r="F10">
+        <v>14654</v>
+      </c>
+      <c r="G10">
+        <v>2018</v>
+      </c>
+      <c r="H10">
+        <v>1324</v>
+      </c>
+      <c r="I10">
+        <v>800</v>
+      </c>
+      <c r="J10">
+        <v>1056</v>
+      </c>
+      <c r="K10">
+        <v>8990</v>
+      </c>
+      <c r="L10">
+        <v>8478</v>
+      </c>
+      <c r="M10">
+        <v>1610</v>
+      </c>
+      <c r="N10">
+        <v>10346</v>
+      </c>
+      <c r="O10">
+        <v>4052</v>
       </c>
     </row>
   </sheetData>
